--- a/me/results.xlsx
+++ b/me/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="19">
   <si>
     <t xml:space="preserve">Linhas:</t>
   </si>
@@ -51,19 +51,49 @@
   <si>
     <t xml:space="preserve">Quick Sort</t>
   </si>
+  <si>
+    <t xml:space="preserve">Sequencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpeedUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eficiencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Colunas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 Colunas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 Colunas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000 Colunas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000 Colunas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100000 Colunas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -85,6 +115,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -93,6 +124,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -100,15 +132,22 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +164,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -190,7 +235,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,8 +268,48 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -236,6 +321,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -244,23 +389,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.46428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.74489795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="3.05102040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="3.05102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="3.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,35 +503,35 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="8" t="n">
         <v>100</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>0.174467</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="8" t="n">
         <v>100</v>
       </c>
       <c r="E6" s="7" t="n">
         <v>0.03687</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="8" t="n">
         <v>100</v>
       </c>
       <c r="H6" s="7" t="n">
         <v>0.017612</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="8" t="n">
         <v>100</v>
       </c>
       <c r="K6" s="7" t="n">
         <v>0.013865</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="7" t="n">
+      <c r="M6" s="8" t="n">
         <v>100</v>
       </c>
       <c r="N6" s="7" t="n">
@@ -392,35 +539,35 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="8" t="n">
         <v>500</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>1.246048</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="8" t="n">
         <v>500</v>
       </c>
       <c r="E7" s="7" t="n">
         <v>0.40714</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="8" t="n">
         <v>500</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>0.187729</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="8" t="n">
         <v>500</v>
       </c>
       <c r="K7" s="7" t="n">
         <v>0.127152</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="7" t="n">
+      <c r="M7" s="8" t="n">
         <v>500</v>
       </c>
       <c r="N7" s="7" t="n">
@@ -428,35 +575,35 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>4.510413</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="E8" s="7" t="n">
         <v>1.520462</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="H8" s="7" t="n">
         <v>0.671589</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="K8" s="7" t="n">
         <v>0.380372</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="7" t="n">
+      <c r="M8" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="N8" s="7" t="n">
@@ -464,71 +611,71 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
-        <v>50000</v>
+      <c r="A9" s="8" t="n">
+        <v>5000</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>106.904332</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="7" t="n">
-        <v>50000</v>
+      <c r="D9" s="8" t="n">
+        <v>5000</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>36.505184</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="7" t="n">
-        <v>50000</v>
+      <c r="G9" s="8" t="n">
+        <v>5000</v>
       </c>
       <c r="H9" s="7" t="n">
         <v>15.810981</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="7" t="n">
-        <v>50000</v>
+      <c r="J9" s="8" t="n">
+        <v>5000</v>
       </c>
       <c r="K9" s="7" t="n">
         <v>0.785306</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="7" t="n">
-        <v>50000</v>
+      <c r="M9" s="8" t="n">
+        <v>5000</v>
       </c>
       <c r="N9" s="7" t="n">
         <v>7.268841</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="8" t="n">
         <v>10000</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>426.49712</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7" t="n">
+      <c r="C10" s="9"/>
+      <c r="D10" s="8" t="n">
         <v>10000</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>145.47184</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7" t="n">
+      <c r="F10" s="9"/>
+      <c r="G10" s="8" t="n">
         <v>10000</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>62.545735</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7" t="n">
+      <c r="I10" s="9"/>
+      <c r="J10" s="8" t="n">
         <v>10000</v>
       </c>
       <c r="K10" s="7" t="n">
         <v>31.015883</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="7" t="n">
+      <c r="L10" s="9"/>
+      <c r="M10" s="8" t="n">
         <v>10000</v>
       </c>
       <c r="N10" s="7" t="n">
@@ -616,35 +763,35 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="8" t="n">
         <v>100</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>0.161513</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="8" t="n">
         <v>100</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>0.0097</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="8" t="n">
         <v>100</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0.007418</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="8" t="n">
         <v>100</v>
       </c>
       <c r="K16" s="7" t="n">
         <v>0.01624</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="7" t="n">
+      <c r="M16" s="8" t="n">
         <v>100</v>
       </c>
       <c r="N16" s="7" t="n">
@@ -652,35 +799,35 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="8" t="n">
         <v>500</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>0.225407</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="8" t="n">
         <v>500</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>0.034206</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="8" t="n">
         <v>500</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0.021554</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="8" t="n">
         <v>500</v>
       </c>
       <c r="K17" s="7" t="n">
         <v>0.018813</v>
       </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="7" t="n">
+      <c r="M17" s="8" t="n">
         <v>500</v>
       </c>
       <c r="N17" s="7" t="n">
@@ -688,35 +835,35 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>0.314172</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>0.048949</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0.027671</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="K18" s="7" t="n">
         <v>0.027066</v>
       </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="7" t="n">
+      <c r="M18" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="N18" s="7" t="n">
@@ -724,79 +871,1089 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
-        <v>50000</v>
+      <c r="A19" s="8" t="n">
+        <v>5000</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>0.822271</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="7" t="n">
-        <v>50000</v>
+      <c r="D19" s="8" t="n">
+        <v>5000</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>0.197485</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="7" t="n">
-        <v>50000</v>
+      <c r="G19" s="8" t="n">
+        <v>5000</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0.104131</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="7" t="n">
-        <v>50000</v>
+      <c r="J19" s="8" t="n">
+        <v>5000</v>
       </c>
       <c r="K19" s="7" t="n">
         <v>0.09855</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="7" t="n">
-        <v>50000</v>
+      <c r="M19" s="8" t="n">
+        <v>5000</v>
       </c>
       <c r="N19" s="7" t="n">
         <v>0.140497</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+      <c r="A20" s="8" t="n">
         <v>10000</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>1.46982</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7" t="n">
+      <c r="C20" s="9"/>
+      <c r="D20" s="8" t="n">
         <v>10000</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>0.387508</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7" t="n">
+      <c r="F20" s="9"/>
+      <c r="G20" s="8" t="n">
         <v>10000</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0.21168</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="7" t="n">
+      <c r="I20" s="9"/>
+      <c r="J20" s="8" t="n">
         <v>10000</v>
       </c>
       <c r="K20" s="7" t="n">
         <v>0.176443</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="7" t="n">
+      <c r="L20" s="9"/>
+      <c r="M20" s="8" t="n">
         <v>10000</v>
       </c>
       <c r="N20" s="7" t="n">
         <v>0.182282</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B21" s="7" t="n">
+        <v>9.502727</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>3.453534</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>1.846406</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>1.872618</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="N21" s="7" t="n">
+        <v>2.271587</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="G23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="J23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="M23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="P23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="G24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="J24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="M24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="P24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="J25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="M25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="P25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="B26" s="12" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D26" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="n">
+        <v>500</v>
+      </c>
+      <c r="B27" s="12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D27" s="14" t="n">
+        <v>500</v>
+      </c>
+      <c r="E27" s="12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" s="17" t="n">
+        <f aca="false">$B$26/B$6</f>
+        <v>0.229269718628738</v>
+      </c>
+      <c r="J27" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" s="17" t="n">
+        <f aca="false">$E$26/B$16</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" s="16"/>
+      <c r="P27" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B28" s="12" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D28" s="14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="12" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="17" t="n">
+        <f aca="false">$B$26/E$6</f>
+        <v>1.0848928668294</v>
+      </c>
+      <c r="J28" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" s="17" t="n">
+        <f aca="false">$E$26/E$16</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" s="16"/>
+      <c r="P28" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B29" s="12" t="n">
+        <v>111.81</v>
+      </c>
+      <c r="D29" s="14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E29" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H29" s="17" t="n">
+        <f aca="false">$B$26/H$6</f>
+        <v>2.27117874176698</v>
+      </c>
+      <c r="J29" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K29" s="17" t="n">
+        <f aca="false">$E$26/H$16</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="N29" s="16"/>
+      <c r="P29" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B30" s="12" t="n">
+        <v>448.01</v>
+      </c>
+      <c r="D30" s="14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E30" s="12" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H30" s="17" t="n">
+        <f aca="false">$B$26/K$6</f>
+        <v>2.88496213487198</v>
+      </c>
+      <c r="J30" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="K30" s="17" t="n">
+        <f aca="false">$E$26/K$16</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="N30" s="16"/>
+      <c r="P30" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="14" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="G31" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="H31" s="17" t="n">
+        <f aca="false">$B$26/N$6</f>
+        <v>1.55074823602388</v>
+      </c>
+      <c r="J31" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="K31" s="17" t="n">
+        <f aca="false">$E$26/N$16</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="N31" s="16"/>
+      <c r="P31" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="J33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="M33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" s="13"/>
+      <c r="P33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="16"/>
+      <c r="P34" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" s="18" t="n">
+        <f aca="false">$B$27/B$7</f>
+        <v>0.898841778165849</v>
+      </c>
+      <c r="J35" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" s="17" t="n">
+        <f aca="false">$E$27/B$16</f>
+        <v>0.123829041625132</v>
+      </c>
+      <c r="M35" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="17"/>
+      <c r="P35" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" s="18" t="n">
+        <f aca="false">$B$27/E$7</f>
+        <v>2.75089649751928</v>
+      </c>
+      <c r="J36" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K36" s="17" t="n">
+        <f aca="false">$E$27/E$16</f>
+        <v>2.06185567010309</v>
+      </c>
+      <c r="M36" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" s="16"/>
+      <c r="P36" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H37" s="18" t="n">
+        <f aca="false">$B$27/H$7</f>
+        <v>5.96604680150643</v>
+      </c>
+      <c r="J37" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="M37" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="N37" s="16"/>
+      <c r="P37" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H38" s="18" t="n">
+        <f aca="false">$B$27/K$7</f>
+        <v>8.80835535422172</v>
+      </c>
+      <c r="J38" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="K38" s="17"/>
+      <c r="M38" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="N38" s="16"/>
+      <c r="P38" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="16"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="H39" s="17" t="n">
+        <f aca="false">$B$27/N$7</f>
+        <v>9.85889457144618</v>
+      </c>
+      <c r="J39" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="M39" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="N39" s="16"/>
+      <c r="P39" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="16"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="J41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="M41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="13"/>
+      <c r="P41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="16"/>
+      <c r="P42" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="16"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="18" t="n">
+        <f aca="false">$B$28/B$8</f>
+        <v>0.988822974747545</v>
+      </c>
+      <c r="J43" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" s="17" t="n">
+        <f aca="false">$E$28/B$16</f>
+        <v>0.247658083250265</v>
+      </c>
+      <c r="M43" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" s="16"/>
+      <c r="P43" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="16"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" s="18" t="n">
+        <f aca="false">$B$28/E$8</f>
+        <v>2.93331895173967</v>
+      </c>
+      <c r="J44" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K44" s="17" t="n">
+        <f aca="false">$E$28/E$16</f>
+        <v>4.12371134020619</v>
+      </c>
+      <c r="M44" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" s="16"/>
+      <c r="P44" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="16"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H45" s="18" t="n">
+        <f aca="false">$B$28/H$8</f>
+        <v>6.6409664244054</v>
+      </c>
+      <c r="J45" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K45" s="16"/>
+      <c r="M45" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="N45" s="16"/>
+      <c r="P45" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="16"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H46" s="18" t="n">
+        <f aca="false">$B$28/K$8</f>
+        <v>11.7253635914315</v>
+      </c>
+      <c r="J46" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="M46" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="N46" s="16"/>
+      <c r="P46" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="16"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="H47" s="18" t="n">
+        <f aca="false">$B$28/N$8</f>
+        <v>14.151048161157</v>
+      </c>
+      <c r="J47" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="K47" s="16"/>
+      <c r="M47" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="N47" s="16"/>
+      <c r="P47" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="16"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="J49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="13"/>
+      <c r="M49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="13"/>
+      <c r="P49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="16"/>
+      <c r="P50" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="16"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" s="18" t="n">
+        <f aca="false">$B$29/B$9</f>
+        <v>1.04588839299796</v>
+      </c>
+      <c r="J51" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" s="17" t="n">
+        <f aca="false">$E$29/B$16</f>
+        <v>1.54786302031415</v>
+      </c>
+      <c r="M51" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" s="16"/>
+      <c r="P51" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="16"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" s="18" t="n">
+        <f aca="false">$B$29/E$9</f>
+        <v>3.06285266224107</v>
+      </c>
+      <c r="J52" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" s="17" t="n">
+        <f aca="false">$E$29/E$16</f>
+        <v>25.7731958762887</v>
+      </c>
+      <c r="M52" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" s="16"/>
+      <c r="P52" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="16"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H53" s="18" t="n">
+        <f aca="false">$B$29/H$9</f>
+        <v>7.07166746958965</v>
+      </c>
+      <c r="J53" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K53" s="16"/>
+      <c r="M53" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="N53" s="16"/>
+      <c r="P53" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q53" s="16"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H54" s="18" t="n">
+        <f aca="false">$B$29/K$9</f>
+        <v>142.377620952852</v>
+      </c>
+      <c r="J54" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="K54" s="16"/>
+      <c r="M54" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="N54" s="16"/>
+      <c r="P54" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="16"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="H55" s="18" t="n">
+        <f aca="false">$B$29/N$9</f>
+        <v>15.3820946145335</v>
+      </c>
+      <c r="J55" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="K55" s="16"/>
+      <c r="M55" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="N55" s="16"/>
+      <c r="P55" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="16"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="J57" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="13"/>
+      <c r="M57" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="13"/>
+      <c r="P57" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="16"/>
+      <c r="P58" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="16"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" s="18" t="n">
+        <f aca="false">$B$30/B$10</f>
+        <v>1.05044085643533</v>
+      </c>
+      <c r="J59" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" s="17" t="n">
+        <f aca="false">$E$30/B$16</f>
+        <v>3.21955508225344</v>
+      </c>
+      <c r="M59" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" s="16"/>
+      <c r="P59" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="16"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" s="18" t="n">
+        <f aca="false">$B$30/B$10</f>
+        <v>1.05044085643533</v>
+      </c>
+      <c r="J60" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" s="17" t="n">
+        <f aca="false">$E$30/E$16</f>
+        <v>53.6082474226804</v>
+      </c>
+      <c r="M60" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" s="16"/>
+      <c r="P60" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="16"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H61" s="18" t="n">
+        <f aca="false">$B$30/H$10</f>
+        <v>7.16291846278567</v>
+      </c>
+      <c r="J61" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K61" s="16"/>
+      <c r="M61" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="N61" s="16"/>
+      <c r="P61" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="16"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H62" s="18" t="n">
+        <f aca="false">$B$30/K$10</f>
+        <v>14.4445347565955</v>
+      </c>
+      <c r="J62" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="K62" s="16"/>
+      <c r="M62" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="N62" s="16"/>
+      <c r="P62" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q62" s="16"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G63" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="H63" s="18" t="n">
+        <f aca="false">$B$30/B$10</f>
+        <v>1.05044085643533</v>
+      </c>
+      <c r="J63" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="K63" s="16"/>
+      <c r="M63" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="N63" s="16"/>
+      <c r="P63" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q63" s="16"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="13"/>
+      <c r="P65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J66" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="16"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J67" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" s="17" t="n">
+        <f aca="false">$E$31/B$16</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="16"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J68" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K68" s="17" t="n">
+        <f aca="false">$E$31/E$16</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="16"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J69" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K69" s="16"/>
+      <c r="P69" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q69" s="16"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J70" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="K70" s="16"/>
+      <c r="P70" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q70" s="16"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J71" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="K71" s="16"/>
+      <c r="P71" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q71" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="46">
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D4:E4"/>
@@ -809,10 +1966,44 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="M14:N14"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="P65:Q65"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/me/results.xlsx
+++ b/me/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
   <si>
     <t>Linhas:</t>
   </si>
@@ -82,12 +82,15 @@
   <si>
     <t>100000 Colunas</t>
   </si>
+  <si>
+    <t>Ideal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -126,6 +129,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -232,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,12 +254,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,19 +261,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -280,6 +274,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -828,7 +840,7 @@
                   <c:v>1.0510035800476214</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0510035800476214</c:v>
+                  <c:v>3.081352377202351</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.1667556548819835</c:v>
@@ -838,6 +850,70 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>15.511666105201453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -854,11 +930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601999872"/>
-        <c:axId val="601993992"/>
+        <c:axId val="458444648"/>
+        <c:axId val="458443080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="601999872"/>
+        <c:axId val="458444648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +1033,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601993992"/>
+        <c:crossAx val="458443080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -965,7 +1041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601993992"/>
+        <c:axId val="458443080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,7 +1092,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601999872"/>
+        <c:crossAx val="458444648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1180,7 +1256,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1446,7 +1522,7 @@
                   <c:v>0.5255017900238107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26275089501190535</c:v>
+                  <c:v>0.77033809430058775</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.89584445686024794</c:v>
@@ -1456,6 +1532,70 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.4847395657875454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$36:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,11 +1612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468779448"/>
-        <c:axId val="468777880"/>
+        <c:axId val="458444256"/>
+        <c:axId val="458443472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="468779448"/>
+        <c:axId val="458444256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,7 +1659,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468777880"/>
+        <c:crossAx val="458443472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1527,7 +1667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468777880"/>
+        <c:axId val="458443472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,7 +1718,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468779448"/>
+        <c:crossAx val="458444256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1742,7 +1882,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2133,19 +2273,89 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.70821775686074118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.9487284619175607</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.6449188315029306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.5938990226517107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.9626864390401959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2162,11 +2372,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="605450976"/>
-        <c:axId val="605451760"/>
+        <c:axId val="459216192"/>
+        <c:axId val="459218152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="605450976"/>
+        <c:axId val="459216192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2419,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605451760"/>
+        <c:crossAx val="459218152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2217,7 +2427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="605451760"/>
+        <c:axId val="459218152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2478,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605450976"/>
+        <c:crossAx val="459216192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2432,7 +2642,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2756,22 +2966,86 @@
             <c:numRef>
               <c:f>Sheet1!$Q$67:$Q$71</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.35410887843037059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.48718211547939017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.45561485393786633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.22461868891573192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9.2583951220006122E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$36:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2788,11 +3062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="605454112"/>
-        <c:axId val="605456856"/>
+        <c:axId val="458262728"/>
+        <c:axId val="458264688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="605454112"/>
+        <c:axId val="458262728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2835,7 +3109,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605456856"/>
+        <c:crossAx val="458264688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2843,7 +3117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="605456856"/>
+        <c:axId val="458264688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2894,7 +3168,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605454112"/>
+        <c:crossAx val="458262728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5219,8 +5493,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5537,8 +5811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5570,1787 +5844,1873 @@
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>100</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>0.17446700000000001</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>100</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>3.687E-2</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>100</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>1.7611999999999999E-2</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>100</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>1.3865000000000001E-2</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <v>100</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="6">
         <v>2.5794000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>500</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>1.246048</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>500</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>0.40714</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>500</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>0.18772900000000001</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <v>500</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>0.12715199999999999</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <v>500</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="6">
         <v>0.113603</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>1000</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>4.5104129999999998</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>1000</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>1.520462</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>1000</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>0.67158899999999999</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>1000</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>0.38037199999999999</v>
       </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <v>1000</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="6">
         <v>0.31517099999999998</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>5000</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>106.904332</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>5000</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>36.505184</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <v>5000</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>15.810981</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <v>5000</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>7.8530600000000002</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="9">
+      <c r="M9" s="7">
         <v>5000</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="6">
         <v>7.2688410000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>10000</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>426.49712</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9">
+      <c r="C10" s="8"/>
+      <c r="D10" s="7">
         <v>10000</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>145.47183999999999</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9">
+      <c r="F10" s="8"/>
+      <c r="G10" s="7">
         <v>10000</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>62.545735000000001</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9">
+      <c r="I10" s="8"/>
+      <c r="J10" s="7">
         <v>10000</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>31.015882999999999</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="9">
+      <c r="L10" s="8"/>
+      <c r="M10" s="7">
         <v>10000</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="6">
         <v>28.897604999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>100</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>0.16151299999999999</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>100</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <v>100</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <v>7.4180000000000001E-3</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <v>100</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="6">
         <v>1.6240000000000001E-2</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="9">
+      <c r="M16" s="7">
         <v>100</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="6">
         <v>2.3904000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>500</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>0.225407</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>500</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>3.4206E-2</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>500</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>2.1554E-2</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="9">
+      <c r="J17" s="7">
         <v>500</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>1.8813E-2</v>
       </c>
       <c r="L17" s="4"/>
-      <c r="M17" s="9">
+      <c r="M17" s="7">
         <v>500</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="6">
         <v>4.0892999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>1000</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>0.31417200000000001</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>1000</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>4.8948999999999999E-2</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <v>1000</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>2.7671000000000001E-2</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="9">
+      <c r="J18" s="7">
         <v>1000</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>2.7066E-2</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="9">
+      <c r="M18" s="7">
         <v>1000</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="6">
         <v>4.7064000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>5000</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>0.82227099999999997</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>5000</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>0.19748499999999999</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>5000</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>0.104131</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="9">
+      <c r="J19" s="7">
         <v>5000</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>9.8549999999999999E-2</v>
       </c>
       <c r="L19" s="4"/>
-      <c r="M19" s="9">
+      <c r="M19" s="7">
         <v>5000</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="6">
         <v>0.14049700000000001</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>10000</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>1.4698199999999999</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>10000</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>0.38750800000000002</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <v>10000</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <v>0.21168000000000001</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="9">
+      <c r="J20" s="7">
         <v>10000</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <v>0.17644299999999999</v>
       </c>
       <c r="L20" s="5"/>
-      <c r="M20" s="9">
+      <c r="M20" s="7">
         <v>10000</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="6">
         <v>0.182282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>100000</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>9.5027270000000001</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9">
+      <c r="C21" s="8"/>
+      <c r="D21" s="7">
         <v>100000</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>3.4535339999999999</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="9">
+      <c r="F21" s="8"/>
+      <c r="G21" s="7">
         <v>100000</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>1.846406</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="9">
+      <c r="I21" s="8"/>
+      <c r="J21" s="7">
         <v>100000</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>1.8726179999999999</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="9">
+      <c r="L21" s="8"/>
+      <c r="M21" s="7">
         <v>100000</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="6">
         <v>2.2715869999999998</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="D23" s="11" t="s">
+      <c r="B23" s="16"/>
+      <c r="D23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="G23" s="14" t="s">
+      <c r="E23" s="16"/>
+      <c r="G23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="J23" s="14" t="s">
+      <c r="H23" s="15"/>
+      <c r="J23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="14"/>
-      <c r="M23" s="14" t="s">
+      <c r="K23" s="15"/>
+      <c r="M23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="14"/>
-      <c r="P23" s="14" t="s">
+      <c r="N23" s="15"/>
+      <c r="P23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" s="14"/>
+      <c r="Q23" s="15"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="16"/>
+      <c r="D24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="G24" s="14" t="s">
+      <c r="E24" s="16"/>
+      <c r="G24" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="J24" s="14" t="s">
+      <c r="H24" s="15"/>
+      <c r="J24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="14"/>
-      <c r="M24" s="14" t="s">
+      <c r="K24" s="15"/>
+      <c r="M24" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="14"/>
-      <c r="P24" s="14" t="s">
+      <c r="N24" s="15"/>
+      <c r="P24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q24" s="14"/>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="J25" s="15" t="s">
+      <c r="H25" s="14"/>
+      <c r="J25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="15"/>
-      <c r="M25" s="15" t="s">
+      <c r="K25" s="14"/>
+      <c r="M25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="15"/>
-      <c r="P25" s="15" t="s">
+      <c r="N25" s="14"/>
+      <c r="P25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q25" s="15"/>
+      <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26" s="10">
         <v>100</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>0.04</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="10">
         <v>100</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="9">
         <v>0</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="11">
         <v>1</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="11">
         <v>1</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="11">
         <v>1</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="11">
         <v>1</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="11">
         <v>1</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="11">
         <v>1</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="11">
         <v>1</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="Q26" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="10">
         <v>500</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="10">
         <v>500</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="9">
         <v>0.02</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="11">
         <v>2</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="12">
         <f>$B$26/B$6</f>
         <v>0.2292697186287378</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="11">
         <v>2</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="12">
         <f>$E$26/B$16</f>
         <v>0</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="11">
         <v>2</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="12">
         <f>H27/G27</f>
         <v>0.1146348593143689</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="11">
         <v>2</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="Q27" s="11">
         <f>K27/J27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="10">
         <v>1000</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>4.46</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="10">
         <v>1000</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="9">
         <v>0.04</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="11">
         <v>4</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="12">
         <f>$B$26/E$6</f>
         <v>1.0848928668294007</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="11">
         <v>4</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="12">
         <f>$E$26/E$16</f>
         <v>0</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="11">
         <v>4</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="12">
         <f t="shared" ref="N28:N31" si="0">H28/G28</f>
         <v>0.27122321670735017</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="11">
         <v>4</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="Q28" s="11">
         <f t="shared" ref="Q28:Q31" si="1">K28/J28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="10">
         <v>5000</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>111.82</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="10">
         <v>5000</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="9">
         <v>0.25</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="11">
         <v>8</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="12">
         <f>$B$26/H$6</f>
         <v>2.2711787417669771</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="11">
         <v>8</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="12">
         <f>$E$26/H$16</f>
         <v>0</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="11">
         <v>8</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="12">
         <f t="shared" si="0"/>
         <v>0.28389734272087214</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="11">
         <v>8</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="Q29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="10">
         <v>10000</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="9">
         <v>448.25</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="10">
         <v>10000</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="9">
         <v>0.52</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="11">
         <v>16</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="12">
         <f>$B$26/K$6</f>
         <v>2.8849621348719796</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="11">
         <v>16</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="12">
         <f>$E$26/K$16</f>
         <v>0</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="11">
         <v>16</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="12">
         <f t="shared" si="0"/>
         <v>0.18031013342949873</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="11">
         <v>16</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="Q30" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D31" s="13">
+      <c r="D31" s="10">
         <v>100000</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="G31" s="16">
+      <c r="E31" s="9">
+        <v>6.73</v>
+      </c>
+      <c r="G31" s="11">
         <v>32</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="12">
         <f>$B$26/N$6</f>
         <v>1.5507482360238816</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="11">
         <v>32</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="12">
         <f>$E$26/N$16</f>
         <v>0</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="11">
         <v>32</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="12">
         <f t="shared" si="0"/>
         <v>4.8460882375746299E-2</v>
       </c>
-      <c r="P31" s="16">
+      <c r="P31" s="11">
         <v>32</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q31" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G33" s="15" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="G33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="J33" s="15" t="s">
+      <c r="H33" s="14"/>
+      <c r="J33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="15"/>
-      <c r="M33" s="15" t="s">
+      <c r="K33" s="14"/>
+      <c r="M33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N33" s="15"/>
-      <c r="P33" s="15" t="s">
+      <c r="N33" s="14"/>
+      <c r="P33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q33" s="15"/>
+      <c r="Q33" s="14"/>
     </row>
-    <row r="34" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G34" s="16">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="D34" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="G34" s="11">
         <v>1</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="11">
         <v>1</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="11">
         <v>1</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="12">
         <v>1</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="11">
         <v>1</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="11">
         <v>1</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="11">
         <v>1</v>
       </c>
-      <c r="Q34" s="16">
+      <c r="Q34" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G35" s="16">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>1</v>
+      </c>
+      <c r="B35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <v>1</v>
+      </c>
+      <c r="G35" s="11">
         <v>2</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="13">
         <f>$B$27/B$7</f>
         <v>0.8988417781658492</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="11">
         <v>2</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="12">
         <f>$E$28/B$17</f>
         <v>0.1774567781834637</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="11">
         <v>2</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="12">
         <f>H35/G35</f>
         <v>0.4494208890829246</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="11">
         <v>2</v>
       </c>
-      <c r="Q35" s="17">
+      <c r="Q35" s="12">
         <f>K35/J35</f>
         <v>8.8728389091731849E-2</v>
       </c>
     </row>
-    <row r="36" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G36" s="16">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>2</v>
+      </c>
+      <c r="B36" s="13">
+        <v>2</v>
+      </c>
+      <c r="D36" s="11">
+        <v>2</v>
+      </c>
+      <c r="E36" s="12">
+        <v>1</v>
+      </c>
+      <c r="G36" s="11">
         <v>4</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="13">
         <f>$B$27/E$7</f>
         <v>2.7508964975192809</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="11">
         <v>4</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="12">
         <f>$E$27/E$17</f>
         <v>0.58469274396304738</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="11">
         <v>4</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="12">
         <f t="shared" ref="N36:N39" si="2">H36/G36</f>
         <v>0.68772412437982022</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="11">
         <v>4</v>
       </c>
-      <c r="Q36" s="17">
+      <c r="Q36" s="12">
         <f t="shared" ref="Q36:Q39" si="3">K36/J36</f>
         <v>0.14617318599076184</v>
       </c>
     </row>
-    <row r="37" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G37" s="16">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>4</v>
+      </c>
+      <c r="B37" s="13">
+        <v>4</v>
+      </c>
+      <c r="D37" s="11">
+        <v>4</v>
+      </c>
+      <c r="E37" s="12">
+        <v>1</v>
+      </c>
+      <c r="G37" s="11">
         <v>8</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="13">
         <f>$B$27/H$7</f>
         <v>5.966046801506427</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="11">
         <v>8</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="12">
         <f>$E$27/H$17</f>
         <v>0.92790201354736945</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="11">
         <v>8</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="12">
         <f t="shared" si="2"/>
         <v>0.74575585018830337</v>
       </c>
-      <c r="P37" s="16">
+      <c r="P37" s="11">
         <v>8</v>
       </c>
-      <c r="Q37" s="17">
+      <c r="Q37" s="12">
         <f t="shared" si="3"/>
         <v>0.11598775169342118</v>
       </c>
     </row>
-    <row r="38" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G38" s="16">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>8</v>
+      </c>
+      <c r="B38" s="13">
+        <v>8</v>
+      </c>
+      <c r="D38" s="11">
+        <v>8</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1</v>
+      </c>
+      <c r="G38" s="11">
         <v>16</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="13">
         <f>$B$27/K$7</f>
         <v>8.808355354221721</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="11">
         <v>16</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="12">
         <f>$E$27/K$17</f>
         <v>1.0630946685802372</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M38" s="11">
         <v>16</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="12">
         <f t="shared" si="2"/>
         <v>0.55052220963885756</v>
       </c>
-      <c r="P38" s="16">
+      <c r="P38" s="11">
         <v>16</v>
       </c>
-      <c r="Q38" s="17">
+      <c r="Q38" s="12">
         <f t="shared" si="3"/>
         <v>6.6443416786264822E-2</v>
       </c>
     </row>
-    <row r="39" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G39" s="16">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>16</v>
+      </c>
+      <c r="B39" s="13">
+        <v>16</v>
+      </c>
+      <c r="D39" s="11">
+        <v>16</v>
+      </c>
+      <c r="E39" s="12">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11">
         <v>32</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="12">
         <f>$B$27/N$7</f>
         <v>9.8588945714461786</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="11">
         <v>32</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="12">
         <f>$E$27/N$17</f>
         <v>0.48908126085149051</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M39" s="11">
         <v>32</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="12">
         <f t="shared" si="2"/>
         <v>0.30809045535769308</v>
       </c>
-      <c r="P39" s="16">
+      <c r="P39" s="11">
         <v>32</v>
       </c>
-      <c r="Q39" s="17">
+      <c r="Q39" s="12">
         <f t="shared" si="3"/>
         <v>1.5283789401609078E-2</v>
       </c>
     </row>
-    <row r="41" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G41" s="15" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>32</v>
+      </c>
+      <c r="B40" s="12">
+        <v>32</v>
+      </c>
+      <c r="D40" s="11">
+        <v>32</v>
+      </c>
+      <c r="E40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="J41" s="15" t="s">
+      <c r="H41" s="14"/>
+      <c r="J41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="15"/>
-      <c r="M41" s="15" t="s">
+      <c r="K41" s="14"/>
+      <c r="M41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N41" s="15"/>
-      <c r="P41" s="15" t="s">
+      <c r="N41" s="14"/>
+      <c r="P41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q41" s="15"/>
+      <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G42" s="16">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G42" s="11">
         <v>1</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="11">
         <v>1</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="11">
         <v>1</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="11">
         <v>1</v>
       </c>
-      <c r="M42" s="16">
+      <c r="M42" s="11">
         <v>1</v>
       </c>
-      <c r="N42" s="16">
+      <c r="N42" s="11">
         <v>1</v>
       </c>
-      <c r="P42" s="16">
+      <c r="P42" s="11">
         <v>1</v>
       </c>
-      <c r="Q42" s="16">
+      <c r="Q42" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G43" s="16">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G43" s="11">
         <v>2</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="13">
         <f>$B$28/B$8</f>
         <v>0.98882297474754532</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="11">
         <v>2</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="12">
         <f>$E$28/B$18</f>
         <v>0.12731879352711253</v>
       </c>
-      <c r="M43" s="16">
+      <c r="M43" s="11">
         <v>2</v>
       </c>
-      <c r="N43" s="17">
+      <c r="N43" s="12">
         <f>H43/G43</f>
         <v>0.49441148737377266</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P43" s="11">
         <v>2</v>
       </c>
-      <c r="Q43" s="17">
+      <c r="Q43" s="12">
         <f>K43/J43</f>
         <v>6.3659396763556267E-2</v>
       </c>
     </row>
-    <row r="44" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G44" s="16">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G44" s="11">
         <v>4</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="13">
         <f>$B$28/E$8</f>
         <v>2.9333189517396687</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="11">
         <v>4</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="12">
         <f>$E$28/E$18</f>
         <v>0.81717706183987415</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="11">
         <v>4</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="12">
         <f t="shared" ref="N44:N47" si="4">H44/G44</f>
         <v>0.73332973793491718</v>
       </c>
-      <c r="P44" s="16">
+      <c r="P44" s="11">
         <v>4</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="12">
         <f t="shared" ref="Q44:Q47" si="5">K44/J44</f>
         <v>0.20429426545996854</v>
       </c>
     </row>
-    <row r="45" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G45" s="16">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G45" s="11">
         <v>8</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="13">
         <f>$B$28/H$8</f>
         <v>6.640966424405403</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="11">
         <v>8</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="12">
         <f>$E$28/H$18</f>
         <v>1.4455567200318022</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M45" s="11">
         <v>8</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="12">
         <f t="shared" si="4"/>
         <v>0.83012080305067537</v>
       </c>
-      <c r="P45" s="16">
+      <c r="P45" s="11">
         <v>8</v>
       </c>
-      <c r="Q45" s="17">
+      <c r="Q45" s="12">
         <f t="shared" si="5"/>
         <v>0.18069459000397528</v>
       </c>
     </row>
-    <row r="46" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G46" s="16">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G46" s="11">
         <v>16</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="13">
         <f>$B$28/K$8</f>
         <v>11.725363591431547</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="11">
         <v>16</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="12">
         <f>$E$28/K$18</f>
         <v>1.4778689130274145</v>
       </c>
-      <c r="M46" s="16">
+      <c r="M46" s="11">
         <v>16</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N46" s="12">
         <f t="shared" si="4"/>
         <v>0.73283522446447169</v>
       </c>
-      <c r="P46" s="16">
+      <c r="P46" s="11">
         <v>16</v>
       </c>
-      <c r="Q46" s="17">
+      <c r="Q46" s="12">
         <f t="shared" si="5"/>
         <v>9.2366807064213408E-2</v>
       </c>
     </row>
-    <row r="47" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G47" s="16">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G47" s="11">
         <v>32</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="13">
         <f>$B$28/N$8</f>
         <v>14.151048161156961</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="11">
         <v>32</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="12">
         <f>$E$28/N$18</f>
         <v>0.84990651028386877</v>
       </c>
-      <c r="M47" s="16">
+      <c r="M47" s="11">
         <v>32</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N47" s="12">
         <f t="shared" si="4"/>
         <v>0.44222025503615503</v>
       </c>
-      <c r="P47" s="16">
+      <c r="P47" s="11">
         <v>32</v>
       </c>
-      <c r="Q47" s="17">
+      <c r="Q47" s="12">
         <f t="shared" si="5"/>
         <v>2.6559578446370899E-2</v>
       </c>
     </row>
     <row r="49" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="J49" s="15" t="s">
+      <c r="H49" s="14"/>
+      <c r="J49" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="15"/>
-      <c r="M49" s="15" t="s">
+      <c r="K49" s="14"/>
+      <c r="M49" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="15"/>
-      <c r="P49" s="15" t="s">
+      <c r="N49" s="14"/>
+      <c r="P49" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Q49" s="15"/>
+      <c r="Q49" s="14"/>
     </row>
     <row r="50" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G50" s="16">
+      <c r="G50" s="11">
         <v>1</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="11">
         <v>1</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="11">
         <v>1</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K50" s="11">
         <v>1</v>
       </c>
-      <c r="M50" s="16">
+      <c r="M50" s="11">
         <v>1</v>
       </c>
-      <c r="N50" s="16">
+      <c r="N50" s="11">
         <v>1</v>
       </c>
-      <c r="P50" s="16">
+      <c r="P50" s="11">
         <v>1</v>
       </c>
-      <c r="Q50" s="16">
+      <c r="Q50" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G51" s="16">
+      <c r="G51" s="11">
         <v>2</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="13">
         <f>$B$29/B$9</f>
         <v>1.0459819345767953</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="11">
         <v>2</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="12">
         <f>$E$29/B$19</f>
         <v>0.30403601732275615</v>
       </c>
-      <c r="M51" s="16">
+      <c r="M51" s="11">
         <v>2</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N51" s="12">
         <f>H51/G51</f>
         <v>0.52299096728839767</v>
       </c>
-      <c r="P51" s="16">
+      <c r="P51" s="11">
         <v>2</v>
       </c>
-      <c r="Q51" s="17">
+      <c r="Q51" s="12">
         <f>K51/J51</f>
         <v>0.15201800866137807</v>
       </c>
     </row>
     <row r="52" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G52" s="16">
+      <c r="G52" s="11">
         <v>4</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="13">
         <f>$B$29/E$9</f>
         <v>3.0631265959377165</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J52" s="11">
         <v>4</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="12">
         <f>$E$29/E$19</f>
         <v>1.2659189305516876</v>
       </c>
-      <c r="M52" s="16">
+      <c r="M52" s="11">
         <v>4</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N52" s="12">
         <f t="shared" ref="N52:N55" si="6">H52/G52</f>
         <v>0.76578164898442913</v>
       </c>
-      <c r="P52" s="16">
+      <c r="P52" s="11">
         <v>4</v>
       </c>
-      <c r="Q52" s="17">
+      <c r="Q52" s="12">
         <f t="shared" ref="Q52:Q55" si="7">K52/J52</f>
         <v>0.3164797326379219</v>
       </c>
     </row>
     <row r="53" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G53" s="16">
+      <c r="G53" s="11">
         <v>8</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="13">
         <f>$B$29/H$9</f>
         <v>7.0722999414141343</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J53" s="11">
         <v>8</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="12">
         <f>$E$29/H$19</f>
         <v>2.4008220414669981</v>
       </c>
-      <c r="M53" s="16">
+      <c r="M53" s="11">
         <v>8</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N53" s="12">
         <f t="shared" si="6"/>
         <v>0.88403749267676679</v>
       </c>
-      <c r="P53" s="16">
+      <c r="P53" s="11">
         <v>8</v>
       </c>
-      <c r="Q53" s="17">
+      <c r="Q53" s="12">
         <f t="shared" si="7"/>
         <v>0.30010275518337476</v>
       </c>
     </row>
     <row r="54" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G54" s="16">
+      <c r="G54" s="11">
         <v>16</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="13">
         <f>$B$29/K$9</f>
         <v>14.239035484257091</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J54" s="11">
         <v>16</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="12">
         <f>$E$29/K$19</f>
         <v>2.5367833587011668</v>
       </c>
-      <c r="M54" s="16">
+      <c r="M54" s="11">
         <v>16</v>
       </c>
-      <c r="N54" s="17">
+      <c r="N54" s="12">
         <f t="shared" si="6"/>
         <v>0.88993971776606817</v>
       </c>
-      <c r="P54" s="16">
+      <c r="P54" s="11">
         <v>16</v>
       </c>
-      <c r="Q54" s="17">
+      <c r="Q54" s="12">
         <f t="shared" si="7"/>
         <v>0.15854895991882292</v>
       </c>
     </row>
     <row r="55" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G55" s="16">
+      <c r="G55" s="11">
         <v>32</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="13">
         <f>$B$29/N$9</f>
         <v>15.383470349674727</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J55" s="11">
         <v>32</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="12">
         <f>$E$29/N$19</f>
         <v>1.7793974248560467</v>
       </c>
-      <c r="M55" s="16">
+      <c r="M55" s="11">
         <v>32</v>
       </c>
-      <c r="N55" s="17">
+      <c r="N55" s="12">
         <f t="shared" si="6"/>
         <v>0.48073344842733523</v>
       </c>
-      <c r="P55" s="16">
+      <c r="P55" s="11">
         <v>32</v>
       </c>
-      <c r="Q55" s="17">
+      <c r="Q55" s="12">
         <f t="shared" si="7"/>
         <v>5.5606169526751459E-2</v>
       </c>
     </row>
     <row r="57" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="J57" s="15" t="s">
+      <c r="H57" s="14"/>
+      <c r="J57" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K57" s="15"/>
-      <c r="M57" s="15" t="s">
+      <c r="K57" s="14"/>
+      <c r="M57" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N57" s="15"/>
-      <c r="P57" s="15" t="s">
+      <c r="N57" s="14"/>
+      <c r="P57" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Q57" s="15"/>
+      <c r="Q57" s="14"/>
     </row>
     <row r="58" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G58" s="16">
+      <c r="G58" s="11">
         <v>1</v>
       </c>
-      <c r="H58" s="16">
+      <c r="H58" s="11">
         <v>1</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="11">
         <v>1</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="11">
         <v>1</v>
       </c>
-      <c r="M58" s="16">
+      <c r="M58" s="11">
         <v>1</v>
       </c>
-      <c r="N58" s="16">
+      <c r="N58" s="11">
         <v>1</v>
       </c>
-      <c r="P58" s="16">
+      <c r="P58" s="11">
         <v>1</v>
       </c>
-      <c r="Q58" s="16">
+      <c r="Q58" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G59" s="16">
+      <c r="G59" s="11">
         <v>2</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="13">
         <f>$B$30/B$10</f>
         <v>1.0510035800476214</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="11">
         <v>2</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="12">
         <f>$E$30/B$20</f>
         <v>0.3537848171884993</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M59" s="11">
         <v>2</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N59" s="12">
         <f>H59/G59</f>
         <v>0.5255017900238107</v>
       </c>
-      <c r="P59" s="16">
+      <c r="P59" s="11">
         <v>2</v>
       </c>
-      <c r="Q59" s="17">
+      <c r="Q59" s="12">
         <f>K59/J59</f>
         <v>0.17689240859424965</v>
       </c>
     </row>
     <row r="60" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G60" s="16">
+      <c r="G60" s="11">
         <v>4</v>
       </c>
-      <c r="H60" s="18">
-        <f>$B$30/B$10</f>
-        <v>1.0510035800476214</v>
-      </c>
-      <c r="J60" s="16">
+      <c r="H60" s="13">
+        <f>$B$30/E$10</f>
+        <v>3.081352377202351</v>
+      </c>
+      <c r="J60" s="11">
         <v>4</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="12">
         <f>$E$30/E$20</f>
         <v>1.3419077799684136</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M60" s="11">
         <v>4</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N60" s="12">
         <f t="shared" ref="N60:N63" si="8">H60/G60</f>
-        <v>0.26275089501190535</v>
-      </c>
-      <c r="P60" s="16">
+        <v>0.77033809430058775</v>
+      </c>
+      <c r="P60" s="11">
         <v>4</v>
       </c>
-      <c r="Q60" s="17">
+      <c r="Q60" s="12">
         <f t="shared" ref="Q60:Q63" si="9">K60/J60</f>
         <v>0.3354769449921034</v>
       </c>
     </row>
     <row r="61" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G61" s="16">
+      <c r="G61" s="11">
         <v>8</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="13">
         <f>$B$30/H$10</f>
         <v>7.1667556548819835</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="11">
         <v>8</v>
       </c>
-      <c r="K61" s="17">
+      <c r="K61" s="12">
         <f>$E$30/H$20</f>
         <v>2.4565381708238849</v>
       </c>
-      <c r="M61" s="16">
+      <c r="M61" s="11">
         <v>8</v>
       </c>
-      <c r="N61" s="17">
+      <c r="N61" s="12">
         <f t="shared" si="8"/>
         <v>0.89584445686024794</v>
       </c>
-      <c r="P61" s="16">
+      <c r="P61" s="11">
         <v>8</v>
       </c>
-      <c r="Q61" s="17">
+      <c r="Q61" s="12">
         <f t="shared" si="9"/>
         <v>0.30706727135298562</v>
       </c>
     </row>
     <row r="62" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G62" s="16">
+      <c r="G62" s="11">
         <v>16</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="13">
         <f>$B$30/K$10</f>
         <v>14.452272727492556</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J62" s="11">
         <v>16</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="12">
         <f>$E$30/K$20</f>
         <v>2.9471274009170103</v>
       </c>
-      <c r="M62" s="16">
+      <c r="M62" s="11">
         <v>16</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N62" s="12">
         <f t="shared" si="8"/>
         <v>0.90326704546828473</v>
       </c>
-      <c r="P62" s="16">
+      <c r="P62" s="11">
         <v>16</v>
       </c>
-      <c r="Q62" s="17">
+      <c r="Q62" s="12">
         <f t="shared" si="9"/>
         <v>0.18419546255731314</v>
       </c>
     </row>
     <row r="63" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G63" s="16">
+      <c r="G63" s="11">
         <v>32</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="13">
         <f>$B$30/N$10</f>
         <v>15.511666105201453</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J63" s="11">
         <v>32</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K63" s="12">
         <f>$E$30/N$20</f>
         <v>2.8527227043811241</v>
       </c>
-      <c r="M63" s="16">
+      <c r="M63" s="11">
         <v>32</v>
       </c>
-      <c r="N63" s="17">
+      <c r="N63" s="12">
         <f t="shared" si="8"/>
         <v>0.4847395657875454</v>
       </c>
-      <c r="P63" s="16">
+      <c r="P63" s="11">
         <v>32</v>
       </c>
-      <c r="Q63" s="17">
+      <c r="Q63" s="12">
         <f t="shared" si="9"/>
         <v>8.9147584511910127E-2</v>
       </c>
     </row>
     <row r="65" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J65" s="15" t="s">
+      <c r="J65" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K65" s="15"/>
-      <c r="P65" s="15" t="s">
+      <c r="K65" s="14"/>
+      <c r="P65" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q65" s="15"/>
+      <c r="Q65" s="14"/>
     </row>
     <row r="66" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J66" s="16">
+      <c r="J66" s="11">
         <v>1</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K66" s="11">
         <v>1</v>
       </c>
-      <c r="P66" s="16">
+      <c r="P66" s="11">
         <v>1</v>
       </c>
-      <c r="Q66" s="16">
+      <c r="Q66" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J67" s="16">
+      <c r="J67" s="11">
         <v>2</v>
       </c>
-      <c r="K67" s="17">
+      <c r="K67" s="12">
         <f>$E$31/B$21</f>
-        <v>0</v>
-      </c>
-      <c r="P67" s="16">
+        <v>0.70821775686074118</v>
+      </c>
+      <c r="P67" s="11">
         <v>2</v>
       </c>
-      <c r="Q67" s="16">
+      <c r="Q67" s="12">
         <f>K67/J67</f>
-        <v>0</v>
+        <v>0.35410887843037059</v>
       </c>
     </row>
     <row r="68" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J68" s="16">
+      <c r="J68" s="11">
         <v>4</v>
       </c>
-      <c r="K68" s="17">
+      <c r="K68" s="12">
         <f>$E$31/E$21</f>
-        <v>0</v>
-      </c>
-      <c r="P68" s="16">
+        <v>1.9487284619175607</v>
+      </c>
+      <c r="P68" s="11">
         <v>4</v>
       </c>
-      <c r="Q68" s="16">
+      <c r="Q68" s="12">
         <f t="shared" ref="Q68:Q71" si="10">K68/J68</f>
-        <v>0</v>
+        <v>0.48718211547939017</v>
       </c>
     </row>
     <row r="69" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J69" s="16">
+      <c r="J69" s="11">
         <v>8</v>
       </c>
-      <c r="K69" s="17">
+      <c r="K69" s="12">
         <f>$E$31/H$21</f>
-        <v>0</v>
-      </c>
-      <c r="P69" s="16">
+        <v>3.6449188315029306</v>
+      </c>
+      <c r="P69" s="11">
         <v>8</v>
       </c>
-      <c r="Q69" s="16">
+      <c r="Q69" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.45561485393786633</v>
       </c>
     </row>
     <row r="70" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J70" s="16">
+      <c r="J70" s="11">
         <v>16</v>
       </c>
-      <c r="K70" s="17">
+      <c r="K70" s="12">
         <f>$E$31/K$21</f>
-        <v>0</v>
-      </c>
-      <c r="P70" s="16">
+        <v>3.5938990226517107</v>
+      </c>
+      <c r="P70" s="11">
         <v>16</v>
       </c>
-      <c r="Q70" s="16">
+      <c r="Q70" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.22461868891573192</v>
       </c>
     </row>
     <row r="71" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J71" s="16">
+      <c r="J71" s="11">
         <v>32</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K71" s="12">
         <f>$E$31/N$21</f>
-        <v>0</v>
-      </c>
-      <c r="P71" s="16">
+        <v>2.9626864390401959</v>
+      </c>
+      <c r="P71" s="11">
         <v>32</v>
       </c>
-      <c r="Q71" s="16">
+      <c r="Q71" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9.2583951220006122E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="P33:Q33"/>
+  <mergeCells count="50">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="D24:E24"/>
@@ -7363,18 +7723,28 @@
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="P65:Q65"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/me/results.xlsx
+++ b/me/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="26">
   <si>
     <t>Linhas:</t>
   </si>
@@ -85,12 +85,30 @@
   <si>
     <t>Ideal</t>
   </si>
+  <si>
+    <t>Custo Comunicacao</t>
+  </si>
+  <si>
+    <t>Comparativo Comunicacao x Tempo Total para 10.000 colunas</t>
+  </si>
+  <si>
+    <t>Comm</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Processos</t>
+  </si>
+  <si>
+    <t>Comunicação x Tempo Toal (10.000)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -139,8 +157,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +188,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -241,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,13 +307,10 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -291,7 +319,39 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -386,10 +446,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -469,7 +529,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$25</c:f>
+              <c:f>Sheet1!$G$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -481,7 +541,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -492,11 +554,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:tint val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -504,7 +570,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$27:$G$31</c:f>
+              <c:f>Sheet1!$G$37:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -528,7 +594,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$27:$H$31</c:f>
+              <c:f>Sheet1!$H$37:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -557,7 +623,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$33</c:f>
+              <c:f>Sheet1!$G$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -569,7 +635,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -580,11 +648,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1">
+                    <a:tint val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -592,7 +664,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$27:$G$31</c:f>
+              <c:f>Sheet1!$G$37:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -616,7 +688,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$35:$H$39</c:f>
+              <c:f>Sheet1!$H$45:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -645,7 +717,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$41</c:f>
+              <c:f>Sheet1!$G$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -657,7 +729,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -668,11 +742,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent1">
+                    <a:tint val="90000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -680,7 +758,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$27:$G$31</c:f>
+              <c:f>Sheet1!$G$37:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -704,7 +782,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$43:$H$47</c:f>
+              <c:f>Sheet1!$H$53:$H$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -733,7 +811,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$49</c:f>
+              <c:f>Sheet1!$G$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -745,7 +823,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -756,11 +836,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="90000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -768,7 +852,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$51:$H$55</c:f>
+              <c:f>Sheet1!$H$61:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -797,7 +881,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$57</c:f>
+              <c:f>Sheet1!$G$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -809,7 +893,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -820,11 +906,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -832,7 +922,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$59:$H$63</c:f>
+              <c:f>Sheet1!$H$69:$H$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -861,7 +951,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$34</c:f>
+              <c:f>Sheet1!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,7 +963,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -884,11 +976,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -896,7 +992,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$36:$B$40</c:f>
+              <c:f>Sheet1!$B$46:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -930,11 +1026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458444648"/>
-        <c:axId val="458443080"/>
+        <c:axId val="440410544"/>
+        <c:axId val="440409368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="458444648"/>
+        <c:axId val="440410544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +1129,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458443080"/>
+        <c:crossAx val="440409368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1041,7 +1137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="458443080"/>
+        <c:axId val="440409368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,6 +1157,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Speed-Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1092,7 +1244,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458444648"/>
+        <c:crossAx val="440410544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1105,7 +1257,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1180,10 +1332,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1263,11 +1415,175 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$25</c:f>
+              <c:f>Sheet1!$M$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>100 Colunas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:tint val="54000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$37:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$37:$N$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1146348593143689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27122321670735017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28389734272087214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18031013342949873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8460882375746299E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 Colunas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:tint val="77000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$45:$N$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4494208890829246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68772412437982022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74575585018830337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55052220963885756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30809045535769308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5000 Colunas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1296,50 +1612,26 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$M$27:$M$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$27:$N$31</c:f>
+              <c:f>Sheet1!$N$61:$N$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1146348593143689</c:v>
+                  <c:v>0.52299096728839767</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27122321670735017</c:v>
+                  <c:v>0.76578164898442913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28389734272087214</c:v>
+                  <c:v>0.88403749267676679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18031013342949873</c:v>
+                  <c:v>0.88993971776606817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8460882375746299E-2</c:v>
+                  <c:v>0.48073344842733523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,15 +1639,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$33</c:f>
+              <c:f>Sheet1!$M$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500 Colunas</c:v>
+                  <c:v>10000 Colunas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1363,7 +1655,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1374,11 +1668,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="76000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1386,24 +1684,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$35:$N$39</c:f>
+              <c:f>Sheet1!$N$69:$N$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.4494208890829246</c:v>
+                  <c:v>0.5255017900238107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68772412437982022</c:v>
+                  <c:v>0.77033809430058775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74575585018830337</c:v>
+                  <c:v>0.89584445686024794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55052220963885756</c:v>
+                  <c:v>0.90326704546828473</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30809045535769308</c:v>
+                  <c:v>0.4847395657875454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1411,15 +1709,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$49</c:f>
+              <c:f>Sheet1!$D$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5000 Colunas</c:v>
+                  <c:v>Ideal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1427,7 +1725,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="53000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1438,147 +1738,46 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="53000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="53000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="53000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:shade val="53000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$51:$N$55</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.52299096728839767</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76578164898442913</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88403749267676679</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88993971776606817</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.48073344842733523</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10000 Colunas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$59:$N$63</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.5255017900238107</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77033809430058775</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89584445686024794</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90326704546828473</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4847395657875454</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$36:$E$40</c:f>
+              <c:f>Sheet1!$E$46:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1612,16 +1811,72 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458444256"/>
-        <c:axId val="458443472"/>
+        <c:axId val="440407800"/>
+        <c:axId val="440410152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="458444256"/>
+        <c:axId val="440407800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Processos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1659,7 +1914,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458443472"/>
+        <c:crossAx val="440410152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1667,7 +1922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="458443472"/>
+        <c:axId val="440410152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,6 +1942,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Eficiencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1718,7 +2029,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458444256"/>
+        <c:crossAx val="440407800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1731,7 +2042,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1806,10 +2117,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1889,7 +2200,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$33</c:f>
+              <c:f>Sheet1!$J$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1901,7 +2212,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2">
+                  <a:tint val="48000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1912,11 +2225,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2">
+                  <a:tint val="48000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2">
+                    <a:tint val="48000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1924,7 +2241,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$J$35:$J$39</c:f>
+              <c:f>Sheet1!$J$45:$J$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1948,7 +2265,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$35:$K$39</c:f>
+              <c:f>Sheet1!$K$45:$K$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1977,11 +2294,151 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$41</c:f>
+              <c:f>Sheet1!$J$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1000 Colunas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:tint val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$53:$K$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12731879352711253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81717706183987415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4455567200318022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4778689130274145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84990651028386877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000 Colunas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="83000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="83000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:tint val="83000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$53:$K$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12731879352711253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81717706183987415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4455567200318022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4778689130274145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84990651028386877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5000 Colunas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2012,135 +2469,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$43:$K$47</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.12731879352711253</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.81717706183987415</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4455567200318022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4778689130274145</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84990651028386877</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1000 Colunas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$43:$K$47</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.12731879352711253</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.81717706183987415</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4455567200318022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4778689130274145</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84990651028386877</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5000 Colunas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$51:$K$55</c:f>
+              <c:f>Sheet1!$K$61:$K$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2169,7 +2498,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$57</c:f>
+              <c:f>Sheet1!$J$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2181,136 +2510,8 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$59:$K$63</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.3537848171884993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3419077799684136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4565381708238849</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9471274009170103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8527227043811241</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$65</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100000 Colunas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$67:$K$71</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.70821775686074118</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9487284619175607</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6449188315029306</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5938990226517107</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9626864390401959</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="82000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2322,14 +2523,14 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="82000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="82000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -2338,7 +2539,147 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$36:$B$40</c:f>
+              <c:f>Sheet1!$K$69:$K$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3537848171884993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3419077799684136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4565381708238849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9471274009170103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8527227043811241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100000 Colunas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$77:$K$81</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.75370221214399047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0353897726049239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7261495974318914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.752993890928964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2727732498200703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="47000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="47000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="47000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$46:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2372,11 +2713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459216192"/>
-        <c:axId val="459218152"/>
+        <c:axId val="439199920"/>
+        <c:axId val="441995208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="459216192"/>
+        <c:axId val="439199920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2760,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459218152"/>
+        <c:crossAx val="441995208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2427,7 +2768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459218152"/>
+        <c:axId val="441995208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,7 +2819,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459216192"/>
+        <c:crossAx val="439199920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2566,10 +2907,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2649,7 +2990,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$33</c:f>
+              <c:f>Sheet1!$P$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2661,7 +3002,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2672,11 +3015,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2">
+                    <a:tint val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2684,7 +3031,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$35:$P$39</c:f>
+              <c:f>Sheet1!$P$45:$P$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2708,7 +3055,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$35:$Q$39</c:f>
+              <c:f>Sheet1!$Q$45:$Q$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2737,7 +3084,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$41</c:f>
+              <c:f>Sheet1!$P$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2749,7 +3096,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2760,11 +3109,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent2">
+                    <a:tint val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2772,7 +3125,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$43:$Q$47</c:f>
+              <c:f>Sheet1!$Q$53:$Q$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2801,7 +3154,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$49</c:f>
+              <c:f>Sheet1!$P$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2813,7 +3166,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2824,11 +3179,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent2">
+                    <a:tint val="90000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2836,7 +3195,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$51:$Q$55</c:f>
+              <c:f>Sheet1!$Q$61:$Q$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2865,7 +3224,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$57</c:f>
+              <c:f>Sheet1!$P$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2877,7 +3236,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2888,11 +3249,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="90000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2900,7 +3265,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$59:$Q$63</c:f>
+              <c:f>Sheet1!$Q$69:$Q$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2929,7 +3294,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$65</c:f>
+              <c:f>Sheet1!$P$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2941,7 +3306,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2952,11 +3319,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2964,24 +3335,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$67:$Q$71</c:f>
+              <c:f>Sheet1!$Q$77:$Q$81</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.35410887843037059</c:v>
+                  <c:v>0.37685110607199523</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48718211547939017</c:v>
+                  <c:v>0.50884744315123098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45561485393786633</c:v>
+                  <c:v>0.46576869967898643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22461868891573192</c:v>
+                  <c:v>0.23456211818306025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2583951220006122E-2</c:v>
+                  <c:v>0.1022741640568772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2993,7 +3364,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$34</c:f>
+              <c:f>Sheet1!$D$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3005,7 +3376,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3016,11 +3389,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3028,7 +3405,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$E$40</c:f>
+              <c:f>Sheet1!$E$46:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3062,11 +3439,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458262728"/>
-        <c:axId val="458264688"/>
+        <c:axId val="441995992"/>
+        <c:axId val="441996384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="458262728"/>
+        <c:axId val="441995992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3109,7 +3486,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458264688"/>
+        <c:crossAx val="441996384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3117,7 +3494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="458264688"/>
+        <c:axId val="441996384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3168,7 +3545,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458262728"/>
+        <c:crossAx val="441995992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3250,162 +3627,26 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -5458,13 +5699,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>588507</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>125185</xdr:rowOff>
+      <xdr:rowOff>125184</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>32656</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>96610</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>748393</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5486,15 +5727,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>183696</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:colOff>82843</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>120385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:colOff>307361</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>144876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5516,15 +5757,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>564695</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:colOff>385400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>86764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>678577</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>147542</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5809,10 +6050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5844,48 +6085,48 @@
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="18"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="18"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -6104,48 +6345,48 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="18"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="18"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
@@ -6219,7 +6460,7 @@
         <v>2.3904000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>500</v>
       </c>
@@ -6255,7 +6496,7 @@
         <v>4.0892999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1000</v>
       </c>
@@ -6291,7 +6532,7 @@
         <v>4.7064000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>5000</v>
       </c>
@@ -6327,7 +6568,7 @@
         <v>0.14049700000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>10000</v>
       </c>
@@ -6363,1342 +6604,2020 @@
         <v>0.182282</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>100000</v>
       </c>
       <c r="B21" s="6">
-        <v>9.5027270000000001</v>
+        <v>8.9292560000000005</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="7">
         <v>100000</v>
       </c>
       <c r="E21" s="6">
-        <v>3.4535339999999999</v>
+        <v>3.306492</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="7">
         <v>100000</v>
       </c>
       <c r="H21" s="6">
-        <v>1.846406</v>
+        <v>1.806154</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="7">
         <v>100000</v>
       </c>
       <c r="K21" s="6">
-        <v>1.8726179999999999</v>
+        <v>1.7932349999999999</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="7">
         <v>100000</v>
       </c>
       <c r="N21" s="6">
-        <v>2.2715869999999998</v>
+        <v>2.0563600000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="P23" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="P24" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="21"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="21"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC24" s="21"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="22"/>
+      <c r="M25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" s="22"/>
+      <c r="S25" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="22"/>
+      <c r="V25" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
+        <v>100</v>
+      </c>
+      <c r="B26" s="26">
+        <v>0.161663</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="24">
+        <v>100</v>
+      </c>
+      <c r="E26" s="26">
+        <v>5.326E-3</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="24">
+        <v>100</v>
+      </c>
+      <c r="H26" s="26">
+        <v>7.9050000000000006E-3</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="24">
+        <v>100</v>
+      </c>
+      <c r="K26" s="26">
+        <v>1.8336000000000002E-2</v>
+      </c>
+      <c r="L26" s="22"/>
+      <c r="M26" s="24">
+        <v>100</v>
+      </c>
+      <c r="N26" s="26">
+        <v>5.7505000000000001E-2</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="26">
+        <f>B30</f>
+        <v>0.94027499999999997</v>
+      </c>
+      <c r="R26" s="22"/>
+      <c r="S26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T26" s="26">
+        <f>E30</f>
+        <v>0.108976</v>
+      </c>
+      <c r="U26" s="22"/>
+      <c r="V26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="W26" s="26">
+        <f>H30</f>
+        <v>0.115286</v>
+      </c>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z26" s="26">
+        <f>K30</f>
+        <v>0.115124</v>
+      </c>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC26" s="26">
+        <f>N30</f>
+        <v>0.52927999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
+        <v>500</v>
+      </c>
+      <c r="B27" s="26">
+        <v>0.17970900000000001</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="24">
+        <v>500</v>
+      </c>
+      <c r="E27" s="26">
+        <v>9.5069999999999998E-3</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="24">
+        <v>500</v>
+      </c>
+      <c r="H27" s="26">
+        <v>1.4309000000000001E-2</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="24">
+        <v>500</v>
+      </c>
+      <c r="K27" s="26">
+        <v>2.6040000000000001E-2</v>
+      </c>
+      <c r="L27" s="22"/>
+      <c r="M27" s="24">
+        <v>500</v>
+      </c>
+      <c r="N27" s="26">
+        <v>7.0565000000000003E-2</v>
+      </c>
+      <c r="P27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="26">
+        <f>B10</f>
+        <v>426.49712</v>
+      </c>
+      <c r="R27" s="22"/>
+      <c r="S27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="26">
+        <f>E10</f>
+        <v>145.47183999999999</v>
+      </c>
+      <c r="U27" s="22"/>
+      <c r="V27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W27" s="26">
+        <f>H10</f>
+        <v>62.545735000000001</v>
+      </c>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" s="26">
+        <f>K10</f>
+        <v>31.015882999999999</v>
+      </c>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC27" s="26">
+        <f>N9</f>
+        <v>7.2688410000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>1000</v>
+      </c>
+      <c r="B28" s="26">
+        <v>0.212617</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="24">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="26">
+        <v>1.4585000000000001E-2</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="24">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="26">
+        <v>1.8377999999999999E-2</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="24">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="26">
+        <v>0.32634999999999997</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="24">
+        <v>1000</v>
+      </c>
+      <c r="N28" s="26">
+        <v>5.7133000000000003E-2</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="R28" s="22"/>
+      <c r="S28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="T28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U28" s="22"/>
+      <c r="V28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="W28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC28" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="24">
+        <v>5000</v>
+      </c>
+      <c r="B29" s="26">
+        <v>0.55155699999999996</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="24">
+        <v>5000</v>
+      </c>
+      <c r="E29" s="26">
+        <v>5.1018000000000001E-2</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="24">
+        <v>5000</v>
+      </c>
+      <c r="H29" s="26">
+        <v>5.3169000000000001E-2</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="24">
+        <v>5000</v>
+      </c>
+      <c r="K29" s="26">
+        <v>7.2958999999999996E-2</v>
+      </c>
+      <c r="L29" s="22"/>
+      <c r="M29" s="24">
+        <v>5000</v>
+      </c>
+      <c r="N29" s="26">
+        <v>8.2471000000000003E-2</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="26">
+        <f>B30</f>
+        <v>0.94027499999999997</v>
+      </c>
+      <c r="R29" s="22"/>
+      <c r="S29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" s="26">
+        <f>E30</f>
+        <v>0.108976</v>
+      </c>
+      <c r="U29" s="22"/>
+      <c r="V29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="W29" s="26">
+        <f>H30</f>
+        <v>0.115286</v>
+      </c>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z29" s="26">
+        <f>K30</f>
+        <v>0.115124</v>
+      </c>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC29" s="26">
+        <f>N30</f>
+        <v>0.52927999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" s="24">
+        <v>10000</v>
+      </c>
+      <c r="B30" s="26">
+        <v>0.94027499999999997</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="24">
+        <v>10000</v>
+      </c>
+      <c r="E30" s="26">
+        <v>0.108976</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="24">
+        <v>10000</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0.115286</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="24">
+        <v>10000</v>
+      </c>
+      <c r="K30" s="26">
+        <v>0.115124</v>
+      </c>
+      <c r="L30" s="25"/>
+      <c r="M30" s="24">
+        <v>10000</v>
+      </c>
+      <c r="N30" s="26">
+        <v>0.52927999999999997</v>
+      </c>
+      <c r="P30" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="26">
+        <f>B20</f>
+        <v>1.4698199999999999</v>
+      </c>
+      <c r="R30" s="22"/>
+      <c r="S30" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T30" s="26">
+        <f>E20</f>
+        <v>0.38750800000000002</v>
+      </c>
+      <c r="U30" s="22"/>
+      <c r="V30" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W30" s="26">
+        <f>H20</f>
+        <v>0.21168000000000001</v>
+      </c>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z30" s="26">
+        <f>K20</f>
+        <v>0.17644299999999999</v>
+      </c>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC30" s="26">
+        <f>N20</f>
+        <v>0.182282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" s="24">
+        <v>100000</v>
+      </c>
+      <c r="B31" s="26">
+        <v>2.9817179999999999</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24">
+        <v>100000</v>
+      </c>
+      <c r="E31" s="26">
+        <v>1.989168</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="24">
+        <v>100000</v>
+      </c>
+      <c r="H31" s="26">
+        <v>1.98865</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="J31" s="24">
+        <v>100000</v>
+      </c>
+      <c r="K31" s="26">
+        <v>0.97000699999999995</v>
+      </c>
+      <c r="L31" s="25"/>
+      <c r="M31" s="24">
+        <v>100000</v>
+      </c>
+      <c r="N31" s="26">
+        <v>2.3006859999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="S32" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="D23" s="16" t="s">
+      <c r="B33" s="18"/>
+      <c r="D33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="G23" s="15" t="s">
+      <c r="E33" s="18"/>
+      <c r="G33" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="J23" s="15" t="s">
+      <c r="H33" s="15"/>
+      <c r="J33" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="M23" s="15" t="s">
+      <c r="K33" s="15"/>
+      <c r="M33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="P23" s="15" t="s">
+      <c r="N33" s="15"/>
+      <c r="P33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="S33" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="T33" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" s="28" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="D24" s="16" t="s">
+      <c r="B34" s="18"/>
+      <c r="D34" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="G24" s="15" t="s">
+      <c r="E34" s="18"/>
+      <c r="G34" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="J24" s="15" t="s">
+      <c r="H34" s="15"/>
+      <c r="J34" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="15"/>
-      <c r="M24" s="15" t="s">
+      <c r="K34" s="15"/>
+      <c r="M34" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="15"/>
-      <c r="P24" s="15" t="s">
+      <c r="N34" s="15"/>
+      <c r="P34" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q24" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="S34" s="28">
+        <v>2</v>
+      </c>
+      <c r="T34" s="29">
+        <f>Q26/Q27</f>
+        <v>2.2046456022962123E-3</v>
+      </c>
+      <c r="U34" s="29">
+        <f>Q29/Q30</f>
+        <v>0.63972119034983876</v>
+      </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G35" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="J25" s="14" t="s">
+      <c r="H35" s="19"/>
+      <c r="J35" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="14"/>
-      <c r="M25" s="14" t="s">
+      <c r="K35" s="19"/>
+      <c r="M35" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="14"/>
-      <c r="P25" s="14" t="s">
+      <c r="N35" s="19"/>
+      <c r="P35" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q25" s="14"/>
+      <c r="Q35" s="19"/>
+      <c r="S35" s="28">
+        <v>4</v>
+      </c>
+      <c r="T35" s="29">
+        <f>T26/T27</f>
+        <v>7.4912092952148001E-4</v>
+      </c>
+      <c r="U35" s="29">
+        <f>T29/T30</f>
+        <v>0.28122258121122662</v>
+      </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
         <v>100</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B36" s="9">
         <v>0.04</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D36" s="10">
         <v>100</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E36" s="9">
         <v>0</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G36" s="11">
         <v>1</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H36" s="11">
         <v>1</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J36" s="11">
         <v>1</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K36" s="11">
         <v>1</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M36" s="11">
         <v>1</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N36" s="11">
         <v>1</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P36" s="11">
         <v>1</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q36" s="11">
         <v>1</v>
       </c>
+      <c r="S36" s="28">
+        <v>8</v>
+      </c>
+      <c r="T36" s="29">
+        <f>W26/W27</f>
+        <v>1.843227200064081E-3</v>
+      </c>
+      <c r="U36" s="29">
+        <f>W29/W30</f>
+        <v>0.54462396069538921</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
         <v>500</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B37" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D37" s="10">
         <v>500</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E37" s="9">
         <v>0.02</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G37" s="11">
         <v>2</v>
       </c>
-      <c r="H27" s="12">
-        <f>$B$26/B$6</f>
+      <c r="H37" s="12">
+        <f>$B$36/B$6</f>
         <v>0.2292697186287378</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J37" s="11">
         <v>2</v>
       </c>
-      <c r="K27" s="12">
-        <f>$E$26/B$16</f>
+      <c r="K37" s="12">
+        <f>$E$36/B$16</f>
         <v>0</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M37" s="11">
         <v>2</v>
       </c>
-      <c r="N27" s="12">
-        <f>H27/G27</f>
+      <c r="N37" s="12">
+        <f>H37/G37</f>
         <v>0.1146348593143689</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P37" s="11">
         <v>2</v>
       </c>
-      <c r="Q27" s="11">
-        <f>K27/J27</f>
+      <c r="Q37" s="11">
+        <f>K37/J37</f>
         <v>0</v>
       </c>
+      <c r="S37" s="28">
+        <v>16</v>
+      </c>
+      <c r="T37" s="29">
+        <f>Z26/Z27</f>
+        <v>3.7117756731285066E-3</v>
+      </c>
+      <c r="U37" s="29">
+        <f>Z29/Z30</f>
+        <v>0.65247133635224985</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
         <v>1000</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B38" s="9">
         <v>4.46</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D38" s="10">
         <v>1000</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E38" s="9">
         <v>0.04</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G38" s="11">
         <v>4</v>
       </c>
-      <c r="H28" s="12">
-        <f>$B$26/E$6</f>
+      <c r="H38" s="12">
+        <f>$B$36/E$6</f>
         <v>1.0848928668294007</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J38" s="11">
         <v>4</v>
       </c>
-      <c r="K28" s="12">
-        <f>$E$26/E$16</f>
+      <c r="K38" s="12">
+        <f>$E$36/E$16</f>
         <v>0</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M38" s="11">
         <v>4</v>
       </c>
-      <c r="N28" s="12">
-        <f t="shared" ref="N28:N31" si="0">H28/G28</f>
+      <c r="N38" s="12">
+        <f t="shared" ref="N38:N41" si="0">H38/G38</f>
         <v>0.27122321670735017</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P38" s="11">
         <v>4</v>
       </c>
-      <c r="Q28" s="11">
-        <f t="shared" ref="Q28:Q31" si="1">K28/J28</f>
+      <c r="Q38" s="11">
+        <f t="shared" ref="Q38:Q41" si="1">K38/J38</f>
         <v>0</v>
       </c>
+      <c r="S38" s="28">
+        <v>32</v>
+      </c>
+      <c r="T38" s="29">
+        <f>AC26/AC27</f>
+        <v>7.2814909557108204E-2</v>
+      </c>
+      <c r="U38" s="29">
+        <f>AC29/AC30</f>
+        <v>2.9036328326439254</v>
+      </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
         <v>5000</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B39" s="9">
         <v>111.82</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D39" s="10">
         <v>5000</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E39" s="9">
         <v>0.25</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G39" s="11">
         <v>8</v>
       </c>
-      <c r="H29" s="12">
-        <f>$B$26/H$6</f>
+      <c r="H39" s="12">
+        <f>$B$36/H$6</f>
         <v>2.2711787417669771</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J39" s="11">
         <v>8</v>
       </c>
-      <c r="K29" s="12">
-        <f>$E$26/H$16</f>
+      <c r="K39" s="12">
+        <f>$E$36/H$16</f>
         <v>0</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M39" s="11">
         <v>8</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N39" s="12">
         <f t="shared" si="0"/>
         <v>0.28389734272087214</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P39" s="11">
         <v>8</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q39" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
         <v>10000</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B40" s="9">
         <v>448.25</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D40" s="10">
         <v>10000</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E40" s="9">
         <v>0.52</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G40" s="11">
         <v>16</v>
       </c>
-      <c r="H30" s="12">
-        <f>$B$26/K$6</f>
+      <c r="H40" s="12">
+        <f>$B$36/K$6</f>
         <v>2.8849621348719796</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J40" s="11">
         <v>16</v>
       </c>
-      <c r="K30" s="12">
-        <f>$E$26/K$16</f>
+      <c r="K40" s="12">
+        <f>$E$36/K$16</f>
         <v>0</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M40" s="11">
         <v>16</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N40" s="12">
         <f t="shared" si="0"/>
         <v>0.18031013342949873</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P40" s="11">
         <v>16</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q40" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D31" s="10">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D41" s="10">
         <v>100000</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E41" s="9">
         <v>6.73</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G41" s="11">
         <v>32</v>
       </c>
-      <c r="H31" s="12">
-        <f>$B$26/N$6</f>
+      <c r="H41" s="12">
+        <f>$B$36/N$6</f>
         <v>1.5507482360238816</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J41" s="11">
         <v>32</v>
       </c>
-      <c r="K31" s="12">
-        <f>$E$26/N$16</f>
+      <c r="K41" s="12">
+        <f>$E$36/N$16</f>
         <v>0</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M41" s="11">
         <v>32</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N41" s="12">
         <f t="shared" si="0"/>
         <v>4.8460882375746299E-2</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P41" s="11">
         <v>32</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q41" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="D33" s="15" t="s">
+      <c r="B43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="G33" s="14" t="s">
+      <c r="E43" s="15"/>
+      <c r="G43" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="J33" s="14" t="s">
+      <c r="H43" s="19"/>
+      <c r="J43" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="14"/>
-      <c r="M33" s="14" t="s">
+      <c r="K43" s="19"/>
+      <c r="M43" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N33" s="14"/>
-      <c r="P33" s="14" t="s">
+      <c r="N43" s="19"/>
+      <c r="P43" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q33" s="14"/>
+      <c r="Q43" s="19"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="D34" s="19" t="s">
+      <c r="B44" s="14"/>
+      <c r="D44" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="G34" s="11">
+      <c r="E44" s="14"/>
+      <c r="G44" s="11">
         <v>1</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H44" s="11">
         <v>1</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J44" s="11">
         <v>1</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K44" s="12">
         <v>1</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M44" s="11">
         <v>1</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N44" s="11">
         <v>1</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P44" s="11">
         <v>1</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q44" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
         <v>1</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B45" s="12">
         <v>1</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D45" s="11">
         <v>1</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E45" s="12">
         <v>1</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G45" s="11">
         <v>2</v>
       </c>
-      <c r="H35" s="13">
-        <f>$B$27/B$7</f>
+      <c r="H45" s="13">
+        <f>$B$37/B$7</f>
         <v>0.8988417781658492</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J45" s="11">
         <v>2</v>
       </c>
-      <c r="K35" s="12">
-        <f>$E$28/B$17</f>
+      <c r="K45" s="12">
+        <f>$E$38/B$17</f>
         <v>0.1774567781834637</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M45" s="11">
         <v>2</v>
       </c>
-      <c r="N35" s="12">
-        <f>H35/G35</f>
+      <c r="N45" s="12">
+        <f>H45/G45</f>
         <v>0.4494208890829246</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P45" s="11">
         <v>2</v>
       </c>
-      <c r="Q35" s="12">
-        <f>K35/J35</f>
+      <c r="Q45" s="12">
+        <f>K45/J45</f>
         <v>8.8728389091731849E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
         <v>2</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B46" s="13">
         <v>2</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D46" s="11">
         <v>2</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E46" s="12">
         <v>1</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G46" s="11">
         <v>4</v>
       </c>
-      <c r="H36" s="13">
-        <f>$B$27/E$7</f>
+      <c r="H46" s="13">
+        <f>$B$37/E$7</f>
         <v>2.7508964975192809</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J46" s="11">
         <v>4</v>
       </c>
-      <c r="K36" s="12">
-        <f>$E$27/E$17</f>
+      <c r="K46" s="12">
+        <f>$E$37/E$17</f>
         <v>0.58469274396304738</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M46" s="11">
         <v>4</v>
       </c>
-      <c r="N36" s="12">
-        <f t="shared" ref="N36:N39" si="2">H36/G36</f>
+      <c r="N46" s="12">
+        <f t="shared" ref="N46:N49" si="2">H46/G46</f>
         <v>0.68772412437982022</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P46" s="11">
         <v>4</v>
       </c>
-      <c r="Q36" s="12">
-        <f t="shared" ref="Q36:Q39" si="3">K36/J36</f>
+      <c r="Q46" s="12">
+        <f t="shared" ref="Q46:Q49" si="3">K46/J46</f>
         <v>0.14617318599076184</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
         <v>4</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B47" s="13">
         <v>4</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D47" s="11">
         <v>4</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E47" s="12">
         <v>1</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G47" s="11">
         <v>8</v>
       </c>
-      <c r="H37" s="13">
-        <f>$B$27/H$7</f>
+      <c r="H47" s="13">
+        <f>$B$37/H$7</f>
         <v>5.966046801506427</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J47" s="11">
         <v>8</v>
       </c>
-      <c r="K37" s="12">
-        <f>$E$27/H$17</f>
+      <c r="K47" s="12">
+        <f>$E$37/H$17</f>
         <v>0.92790201354736945</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M47" s="11">
         <v>8</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N47" s="12">
         <f t="shared" si="2"/>
         <v>0.74575585018830337</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P47" s="11">
         <v>8</v>
       </c>
-      <c r="Q37" s="12">
+      <c r="Q47" s="12">
         <f t="shared" si="3"/>
         <v>0.11598775169342118</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
         <v>8</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B48" s="13">
         <v>8</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D48" s="11">
         <v>8</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E48" s="12">
         <v>1</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G48" s="11">
         <v>16</v>
       </c>
-      <c r="H38" s="13">
-        <f>$B$27/K$7</f>
+      <c r="H48" s="13">
+        <f>$B$37/K$7</f>
         <v>8.808355354221721</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J48" s="11">
         <v>16</v>
       </c>
-      <c r="K38" s="12">
-        <f>$E$27/K$17</f>
+      <c r="K48" s="12">
+        <f>$E$37/K$17</f>
         <v>1.0630946685802372</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M48" s="11">
         <v>16</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N48" s="12">
         <f t="shared" si="2"/>
         <v>0.55052220963885756</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P48" s="11">
         <v>16</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="Q48" s="12">
         <f t="shared" si="3"/>
         <v>6.6443416786264822E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
         <v>16</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B49" s="13">
         <v>16</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D49" s="11">
         <v>16</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E49" s="12">
         <v>1</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G49" s="11">
         <v>32</v>
       </c>
-      <c r="H39" s="12">
-        <f>$B$27/N$7</f>
+      <c r="H49" s="12">
+        <f>$B$37/N$7</f>
         <v>9.8588945714461786</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J49" s="11">
         <v>32</v>
       </c>
-      <c r="K39" s="12">
-        <f>$E$27/N$17</f>
+      <c r="K49" s="12">
+        <f>$E$37/N$17</f>
         <v>0.48908126085149051</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M49" s="11">
         <v>32</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N49" s="12">
         <f t="shared" si="2"/>
         <v>0.30809045535769308</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P49" s="11">
         <v>32</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q49" s="12">
         <f t="shared" si="3"/>
         <v>1.5283789401609078E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
         <v>32</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B50" s="12">
         <v>32</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D50" s="11">
         <v>32</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E50" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G41" s="14" t="s">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G51" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="J41" s="14" t="s">
+      <c r="H51" s="19"/>
+      <c r="J51" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="14"/>
-      <c r="M41" s="14" t="s">
+      <c r="K51" s="19"/>
+      <c r="M51" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N41" s="14"/>
-      <c r="P41" s="14" t="s">
+      <c r="N51" s="19"/>
+      <c r="P51" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q41" s="14"/>
+      <c r="Q51" s="19"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G42" s="11">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G52" s="11">
         <v>1</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H52" s="11">
         <v>1</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J52" s="11">
         <v>1</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K52" s="11">
         <v>1</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M52" s="11">
         <v>1</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N52" s="11">
         <v>1</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P52" s="11">
         <v>1</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q52" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G43" s="11">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G53" s="11">
         <v>2</v>
       </c>
-      <c r="H43" s="13">
-        <f>$B$28/B$8</f>
+      <c r="H53" s="13">
+        <f>$B$38/B$8</f>
         <v>0.98882297474754532</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J53" s="11">
         <v>2</v>
       </c>
-      <c r="K43" s="12">
-        <f>$E$28/B$18</f>
+      <c r="K53" s="12">
+        <f>$E$38/B$18</f>
         <v>0.12731879352711253</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M53" s="11">
         <v>2</v>
       </c>
-      <c r="N43" s="12">
-        <f>H43/G43</f>
+      <c r="N53" s="12">
+        <f>H53/G53</f>
         <v>0.49441148737377266</v>
       </c>
-      <c r="P43" s="11">
+      <c r="P53" s="11">
         <v>2</v>
       </c>
-      <c r="Q43" s="12">
-        <f>K43/J43</f>
+      <c r="Q53" s="12">
+        <f>K53/J53</f>
         <v>6.3659396763556267E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G44" s="11">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G54" s="11">
         <v>4</v>
       </c>
-      <c r="H44" s="13">
-        <f>$B$28/E$8</f>
+      <c r="H54" s="13">
+        <f>$B$38/E$8</f>
         <v>2.9333189517396687</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J54" s="11">
         <v>4</v>
       </c>
-      <c r="K44" s="12">
-        <f>$E$28/E$18</f>
+      <c r="K54" s="12">
+        <f>$E$38/E$18</f>
         <v>0.81717706183987415</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M54" s="11">
         <v>4</v>
       </c>
-      <c r="N44" s="12">
-        <f t="shared" ref="N44:N47" si="4">H44/G44</f>
+      <c r="N54" s="12">
+        <f t="shared" ref="N54:N57" si="4">H54/G54</f>
         <v>0.73332973793491718</v>
       </c>
-      <c r="P44" s="11">
+      <c r="P54" s="11">
         <v>4</v>
       </c>
-      <c r="Q44" s="12">
-        <f t="shared" ref="Q44:Q47" si="5">K44/J44</f>
+      <c r="Q54" s="12">
+        <f t="shared" ref="Q54:Q57" si="5">K54/J54</f>
         <v>0.20429426545996854</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G45" s="11">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G55" s="11">
         <v>8</v>
       </c>
-      <c r="H45" s="13">
-        <f>$B$28/H$8</f>
+      <c r="H55" s="13">
+        <f>$B$38/H$8</f>
         <v>6.640966424405403</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J55" s="11">
         <v>8</v>
       </c>
-      <c r="K45" s="12">
-        <f>$E$28/H$18</f>
+      <c r="K55" s="12">
+        <f>$E$38/H$18</f>
         <v>1.4455567200318022</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M55" s="11">
         <v>8</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N55" s="12">
         <f t="shared" si="4"/>
         <v>0.83012080305067537</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P55" s="11">
         <v>8</v>
       </c>
-      <c r="Q45" s="12">
+      <c r="Q55" s="12">
         <f t="shared" si="5"/>
         <v>0.18069459000397528</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G46" s="11">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G56" s="11">
         <v>16</v>
       </c>
-      <c r="H46" s="13">
-        <f>$B$28/K$8</f>
+      <c r="H56" s="13">
+        <f>$B$38/K$8</f>
         <v>11.725363591431547</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J56" s="11">
         <v>16</v>
       </c>
-      <c r="K46" s="12">
-        <f>$E$28/K$18</f>
+      <c r="K56" s="12">
+        <f>$E$38/K$18</f>
         <v>1.4778689130274145</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M56" s="11">
         <v>16</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N56" s="12">
         <f t="shared" si="4"/>
         <v>0.73283522446447169</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P56" s="11">
         <v>16</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="Q56" s="12">
         <f t="shared" si="5"/>
         <v>9.2366807064213408E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G47" s="11">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G57" s="11">
         <v>32</v>
       </c>
-      <c r="H47" s="13">
-        <f>$B$28/N$8</f>
+      <c r="H57" s="13">
+        <f>$B$38/N$8</f>
         <v>14.151048161156961</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J57" s="11">
         <v>32</v>
       </c>
-      <c r="K47" s="12">
-        <f>$E$28/N$18</f>
+      <c r="K57" s="12">
+        <f>$E$38/N$18</f>
         <v>0.84990651028386877</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M57" s="11">
         <v>32</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N57" s="12">
         <f t="shared" si="4"/>
         <v>0.44222025503615503</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P57" s="11">
         <v>32</v>
       </c>
-      <c r="Q47" s="12">
+      <c r="Q57" s="12">
         <f t="shared" si="5"/>
         <v>2.6559578446370899E-2</v>
       </c>
     </row>
-    <row r="49" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G49" s="14" t="s">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G59" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="14"/>
-      <c r="J49" s="14" t="s">
+      <c r="H59" s="19"/>
+      <c r="J59" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="14"/>
-      <c r="M49" s="14" t="s">
+      <c r="K59" s="19"/>
+      <c r="M59" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="14"/>
-      <c r="P49" s="14" t="s">
+      <c r="N59" s="19"/>
+      <c r="P59" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Q49" s="14"/>
+      <c r="Q59" s="19"/>
     </row>
-    <row r="50" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G50" s="11">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G60" s="11">
         <v>1</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H60" s="11">
         <v>1</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J60" s="11">
         <v>1</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K60" s="11">
         <v>1</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M60" s="11">
         <v>1</v>
       </c>
-      <c r="N50" s="11">
+      <c r="N60" s="11">
         <v>1</v>
       </c>
-      <c r="P50" s="11">
+      <c r="P60" s="11">
         <v>1</v>
       </c>
-      <c r="Q50" s="11">
+      <c r="Q60" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G51" s="11">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G61" s="11">
         <v>2</v>
       </c>
-      <c r="H51" s="13">
-        <f>$B$29/B$9</f>
+      <c r="H61" s="13">
+        <f>$B$39/B$9</f>
         <v>1.0459819345767953</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J61" s="11">
         <v>2</v>
       </c>
-      <c r="K51" s="12">
-        <f>$E$29/B$19</f>
+      <c r="K61" s="12">
+        <f>$E$39/B$19</f>
         <v>0.30403601732275615</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M61" s="11">
         <v>2</v>
       </c>
-      <c r="N51" s="12">
-        <f>H51/G51</f>
+      <c r="N61" s="12">
+        <f>H61/G61</f>
         <v>0.52299096728839767</v>
       </c>
-      <c r="P51" s="11">
+      <c r="P61" s="11">
         <v>2</v>
       </c>
-      <c r="Q51" s="12">
-        <f>K51/J51</f>
+      <c r="Q61" s="12">
+        <f>K61/J61</f>
         <v>0.15201800866137807</v>
       </c>
     </row>
-    <row r="52" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G52" s="11">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G62" s="11">
         <v>4</v>
       </c>
-      <c r="H52" s="13">
-        <f>$B$29/E$9</f>
+      <c r="H62" s="13">
+        <f>$B$39/E$9</f>
         <v>3.0631265959377165</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J62" s="11">
         <v>4</v>
       </c>
-      <c r="K52" s="12">
-        <f>$E$29/E$19</f>
+      <c r="K62" s="12">
+        <f>$E$39/E$19</f>
         <v>1.2659189305516876</v>
       </c>
-      <c r="M52" s="11">
+      <c r="M62" s="11">
         <v>4</v>
       </c>
-      <c r="N52" s="12">
-        <f t="shared" ref="N52:N55" si="6">H52/G52</f>
+      <c r="N62" s="12">
+        <f t="shared" ref="N62:N65" si="6">H62/G62</f>
         <v>0.76578164898442913</v>
       </c>
-      <c r="P52" s="11">
+      <c r="P62" s="11">
         <v>4</v>
       </c>
-      <c r="Q52" s="12">
-        <f t="shared" ref="Q52:Q55" si="7">K52/J52</f>
+      <c r="Q62" s="12">
+        <f t="shared" ref="Q62:Q65" si="7">K62/J62</f>
         <v>0.3164797326379219</v>
       </c>
     </row>
-    <row r="53" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G53" s="11">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G63" s="11">
         <v>8</v>
       </c>
-      <c r="H53" s="13">
-        <f>$B$29/H$9</f>
+      <c r="H63" s="13">
+        <f>$B$39/H$9</f>
         <v>7.0722999414141343</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J63" s="11">
         <v>8</v>
       </c>
-      <c r="K53" s="12">
-        <f>$E$29/H$19</f>
+      <c r="K63" s="12">
+        <f>$E$39/H$19</f>
         <v>2.4008220414669981</v>
       </c>
-      <c r="M53" s="11">
+      <c r="M63" s="11">
         <v>8</v>
       </c>
-      <c r="N53" s="12">
+      <c r="N63" s="12">
         <f t="shared" si="6"/>
         <v>0.88403749267676679</v>
       </c>
-      <c r="P53" s="11">
+      <c r="P63" s="11">
         <v>8</v>
       </c>
-      <c r="Q53" s="12">
+      <c r="Q63" s="12">
         <f t="shared" si="7"/>
         <v>0.30010275518337476</v>
       </c>
     </row>
-    <row r="54" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G54" s="11">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G64" s="11">
         <v>16</v>
       </c>
-      <c r="H54" s="13">
-        <f>$B$29/K$9</f>
+      <c r="H64" s="13">
+        <f>$B$39/K$9</f>
         <v>14.239035484257091</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J64" s="11">
         <v>16</v>
       </c>
-      <c r="K54" s="12">
-        <f>$E$29/K$19</f>
+      <c r="K64" s="12">
+        <f>$E$39/K$19</f>
         <v>2.5367833587011668</v>
       </c>
-      <c r="M54" s="11">
+      <c r="M64" s="11">
         <v>16</v>
       </c>
-      <c r="N54" s="12">
+      <c r="N64" s="12">
         <f t="shared" si="6"/>
         <v>0.88993971776606817</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P64" s="11">
         <v>16</v>
       </c>
-      <c r="Q54" s="12">
+      <c r="Q64" s="12">
         <f t="shared" si="7"/>
         <v>0.15854895991882292</v>
       </c>
     </row>
-    <row r="55" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G55" s="11">
+    <row r="65" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G65" s="11">
         <v>32</v>
       </c>
-      <c r="H55" s="13">
-        <f>$B$29/N$9</f>
+      <c r="H65" s="13">
+        <f>$B$39/N$9</f>
         <v>15.383470349674727</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J65" s="11">
         <v>32</v>
       </c>
-      <c r="K55" s="12">
-        <f>$E$29/N$19</f>
+      <c r="K65" s="12">
+        <f>$E$39/N$19</f>
         <v>1.7793974248560467</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M65" s="11">
         <v>32</v>
       </c>
-      <c r="N55" s="12">
+      <c r="N65" s="12">
         <f t="shared" si="6"/>
         <v>0.48073344842733523</v>
       </c>
-      <c r="P55" s="11">
+      <c r="P65" s="11">
         <v>32</v>
       </c>
-      <c r="Q55" s="12">
+      <c r="Q65" s="12">
         <f t="shared" si="7"/>
         <v>5.5606169526751459E-2</v>
       </c>
     </row>
-    <row r="57" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G57" s="14" t="s">
+    <row r="67" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G67" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="14"/>
-      <c r="J57" s="14" t="s">
+      <c r="H67" s="19"/>
+      <c r="J67" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K57" s="14"/>
-      <c r="M57" s="14" t="s">
+      <c r="K67" s="19"/>
+      <c r="M67" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N57" s="14"/>
-      <c r="P57" s="14" t="s">
+      <c r="N67" s="19"/>
+      <c r="P67" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q57" s="14"/>
+      <c r="Q67" s="19"/>
     </row>
-    <row r="58" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G58" s="11">
+    <row r="68" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G68" s="11">
         <v>1</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H68" s="11">
         <v>1</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J68" s="11">
         <v>1</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K68" s="11">
         <v>1</v>
       </c>
-      <c r="M58" s="11">
+      <c r="M68" s="11">
         <v>1</v>
       </c>
-      <c r="N58" s="11">
+      <c r="N68" s="11">
         <v>1</v>
       </c>
-      <c r="P58" s="11">
+      <c r="P68" s="11">
         <v>1</v>
       </c>
-      <c r="Q58" s="11">
+      <c r="Q68" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G59" s="11">
+    <row r="69" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G69" s="11">
         <v>2</v>
       </c>
-      <c r="H59" s="13">
-        <f>$B$30/B$10</f>
+      <c r="H69" s="13">
+        <f>$B$40/B$10</f>
         <v>1.0510035800476214</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J69" s="11">
         <v>2</v>
       </c>
-      <c r="K59" s="12">
-        <f>$E$30/B$20</f>
+      <c r="K69" s="12">
+        <f>$E$40/B$20</f>
         <v>0.3537848171884993</v>
       </c>
-      <c r="M59" s="11">
+      <c r="M69" s="11">
         <v>2</v>
       </c>
-      <c r="N59" s="12">
-        <f>H59/G59</f>
+      <c r="N69" s="12">
+        <f>H69/G69</f>
         <v>0.5255017900238107</v>
       </c>
-      <c r="P59" s="11">
+      <c r="P69" s="11">
         <v>2</v>
       </c>
-      <c r="Q59" s="12">
-        <f>K59/J59</f>
+      <c r="Q69" s="12">
+        <f>K69/J69</f>
         <v>0.17689240859424965</v>
       </c>
     </row>
-    <row r="60" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G60" s="11">
+    <row r="70" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G70" s="11">
         <v>4</v>
       </c>
-      <c r="H60" s="13">
-        <f>$B$30/E$10</f>
+      <c r="H70" s="13">
+        <f>$B$40/E$10</f>
         <v>3.081352377202351</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J70" s="11">
         <v>4</v>
       </c>
-      <c r="K60" s="12">
-        <f>$E$30/E$20</f>
+      <c r="K70" s="12">
+        <f>$E$40/E$20</f>
         <v>1.3419077799684136</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M70" s="11">
         <v>4</v>
       </c>
-      <c r="N60" s="12">
-        <f t="shared" ref="N60:N63" si="8">H60/G60</f>
+      <c r="N70" s="12">
+        <f t="shared" ref="N70:N73" si="8">H70/G70</f>
         <v>0.77033809430058775</v>
       </c>
-      <c r="P60" s="11">
+      <c r="P70" s="11">
         <v>4</v>
       </c>
-      <c r="Q60" s="12">
-        <f t="shared" ref="Q60:Q63" si="9">K60/J60</f>
+      <c r="Q70" s="12">
+        <f t="shared" ref="Q70:Q73" si="9">K70/J70</f>
         <v>0.3354769449921034</v>
       </c>
     </row>
-    <row r="61" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G61" s="11">
+    <row r="71" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G71" s="11">
         <v>8</v>
       </c>
-      <c r="H61" s="13">
-        <f>$B$30/H$10</f>
+      <c r="H71" s="13">
+        <f>$B$40/H$10</f>
         <v>7.1667556548819835</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J71" s="11">
         <v>8</v>
       </c>
-      <c r="K61" s="12">
-        <f>$E$30/H$20</f>
+      <c r="K71" s="12">
+        <f>$E$40/H$20</f>
         <v>2.4565381708238849</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M71" s="11">
         <v>8</v>
       </c>
-      <c r="N61" s="12">
+      <c r="N71" s="12">
         <f t="shared" si="8"/>
         <v>0.89584445686024794</v>
       </c>
-      <c r="P61" s="11">
+      <c r="P71" s="11">
         <v>8</v>
       </c>
-      <c r="Q61" s="12">
+      <c r="Q71" s="12">
         <f t="shared" si="9"/>
         <v>0.30706727135298562</v>
       </c>
     </row>
-    <row r="62" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G62" s="11">
+    <row r="72" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G72" s="11">
         <v>16</v>
       </c>
-      <c r="H62" s="13">
-        <f>$B$30/K$10</f>
+      <c r="H72" s="13">
+        <f>$B$40/K$10</f>
         <v>14.452272727492556</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J72" s="11">
         <v>16</v>
       </c>
-      <c r="K62" s="12">
-        <f>$E$30/K$20</f>
+      <c r="K72" s="12">
+        <f>$E$40/K$20</f>
         <v>2.9471274009170103</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M72" s="11">
         <v>16</v>
       </c>
-      <c r="N62" s="12">
+      <c r="N72" s="12">
         <f t="shared" si="8"/>
         <v>0.90326704546828473</v>
       </c>
-      <c r="P62" s="11">
+      <c r="P72" s="11">
         <v>16</v>
       </c>
-      <c r="Q62" s="12">
+      <c r="Q72" s="12">
         <f t="shared" si="9"/>
         <v>0.18419546255731314</v>
       </c>
     </row>
-    <row r="63" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G63" s="11">
+    <row r="73" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G73" s="11">
         <v>32</v>
       </c>
-      <c r="H63" s="13">
-        <f>$B$30/N$10</f>
+      <c r="H73" s="13">
+        <f>$B$40/N$10</f>
         <v>15.511666105201453</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J73" s="11">
         <v>32</v>
       </c>
-      <c r="K63" s="12">
-        <f>$E$30/N$20</f>
+      <c r="K73" s="12">
+        <f>$E$40/N$20</f>
         <v>2.8527227043811241</v>
       </c>
-      <c r="M63" s="11">
+      <c r="M73" s="11">
         <v>32</v>
       </c>
-      <c r="N63" s="12">
+      <c r="N73" s="12">
         <f t="shared" si="8"/>
         <v>0.4847395657875454</v>
       </c>
-      <c r="P63" s="11">
+      <c r="P73" s="11">
         <v>32</v>
       </c>
-      <c r="Q63" s="12">
+      <c r="Q73" s="12">
         <f t="shared" si="9"/>
         <v>8.9147584511910127E-2</v>
       </c>
     </row>
-    <row r="65" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J65" s="14" t="s">
+    <row r="75" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="J75" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K65" s="14"/>
-      <c r="P65" s="14" t="s">
+      <c r="K75" s="19"/>
+      <c r="P75" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q65" s="14"/>
+      <c r="Q75" s="19"/>
     </row>
-    <row r="66" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J66" s="11">
+    <row r="76" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="J76" s="11">
         <v>1</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K76" s="11">
         <v>1</v>
       </c>
-      <c r="P66" s="11">
+      <c r="P76" s="11">
         <v>1</v>
       </c>
-      <c r="Q66" s="11">
+      <c r="Q76" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J67" s="11">
+    <row r="77" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="J77" s="11">
         <v>2</v>
       </c>
-      <c r="K67" s="12">
-        <f>$E$31/B$21</f>
-        <v>0.70821775686074118</v>
-      </c>
-      <c r="P67" s="11">
+      <c r="K77" s="12">
+        <f>$E$41/B$21</f>
+        <v>0.75370221214399047</v>
+      </c>
+      <c r="P77" s="11">
         <v>2</v>
       </c>
-      <c r="Q67" s="12">
-        <f>K67/J67</f>
-        <v>0.35410887843037059</v>
+      <c r="Q77" s="12">
+        <f>K77/J77</f>
+        <v>0.37685110607199523</v>
       </c>
     </row>
-    <row r="68" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J68" s="11">
+    <row r="78" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="J78" s="11">
         <v>4</v>
       </c>
-      <c r="K68" s="12">
-        <f>$E$31/E$21</f>
-        <v>1.9487284619175607</v>
-      </c>
-      <c r="P68" s="11">
+      <c r="K78" s="12">
+        <f>$E$41/E$21</f>
+        <v>2.0353897726049239</v>
+      </c>
+      <c r="P78" s="11">
         <v>4</v>
       </c>
-      <c r="Q68" s="12">
-        <f t="shared" ref="Q68:Q71" si="10">K68/J68</f>
-        <v>0.48718211547939017</v>
+      <c r="Q78" s="12">
+        <f t="shared" ref="Q78:Q81" si="10">K78/J78</f>
+        <v>0.50884744315123098</v>
       </c>
     </row>
-    <row r="69" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J69" s="11">
+    <row r="79" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="J79" s="11">
         <v>8</v>
       </c>
-      <c r="K69" s="12">
-        <f>$E$31/H$21</f>
-        <v>3.6449188315029306</v>
-      </c>
-      <c r="P69" s="11">
+      <c r="K79" s="12">
+        <f>$E$41/H$21</f>
+        <v>3.7261495974318914</v>
+      </c>
+      <c r="P79" s="11">
         <v>8</v>
       </c>
-      <c r="Q69" s="12">
+      <c r="Q79" s="12">
         <f t="shared" si="10"/>
-        <v>0.45561485393786633</v>
+        <v>0.46576869967898643</v>
       </c>
     </row>
-    <row r="70" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J70" s="11">
+    <row r="80" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="J80" s="11">
         <v>16</v>
       </c>
-      <c r="K70" s="12">
-        <f>$E$31/K$21</f>
-        <v>3.5938990226517107</v>
-      </c>
-      <c r="P70" s="11">
+      <c r="K80" s="12">
+        <f>$E$41/K$21</f>
+        <v>3.752993890928964</v>
+      </c>
+      <c r="P80" s="11">
         <v>16</v>
       </c>
-      <c r="Q70" s="12">
+      <c r="Q80" s="12">
         <f t="shared" si="10"/>
-        <v>0.22461868891573192</v>
+        <v>0.23456211818306025</v>
       </c>
     </row>
-    <row r="71" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J71" s="11">
+    <row r="81" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J81" s="11">
         <v>32</v>
       </c>
-      <c r="K71" s="12">
-        <f>$E$31/N$21</f>
-        <v>2.9626864390401959</v>
-      </c>
-      <c r="P71" s="11">
+      <c r="K81" s="12">
+        <f>$E$41/N$21</f>
+        <v>3.2727732498200703</v>
+      </c>
+      <c r="P81" s="11">
         <v>32</v>
       </c>
-      <c r="Q71" s="12">
+      <c r="Q81" s="12">
         <f t="shared" si="10"/>
-        <v>9.2583951220006122E-2</v>
+        <v>0.1022741640568772</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="63">
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="P23:AC23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P33:Q33"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="P34:Q34"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D4:E4"/>
@@ -7711,40 +8630,6 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="P65:Q65"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/me/results.xlsx
+++ b/me/results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korol\Desktop\2018_1\PPD\ppd\me\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus Storck\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C78EBD7E-EBD7-4D2D-B75E-CCBC9910122D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -101,13 +102,13 @@
     <t>Processos</t>
   </si>
   <si>
-    <t>Comunicação x Tempo Toal (10.000)</t>
+    <t>Comunicação x Tempo Total (10.000)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -197,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -268,11 +269,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,30 +345,6 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,6 +366,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -440,7 +493,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -488,7 +541,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -514,7 +566,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -617,6 +669,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-576E-4A5E-8854-ED5228D12C57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -711,6 +768,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-576E-4A5E-8854-ED5228D12C57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -805,6 +867,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-576E-4A5E-8854-ED5228D12C57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -875,6 +942,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-576E-4A5E-8854-ED5228D12C57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -945,6 +1017,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-576E-4A5E-8854-ED5228D12C57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1015,6 +1092,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-576E-4A5E-8854-ED5228D12C57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1062,7 +1144,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1088,7 +1169,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1126,7 +1207,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="440409368"/>
@@ -1183,7 +1264,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1209,7 +1289,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1241,7 +1321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="440410544"/>
@@ -1258,7 +1338,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1284,7 +1363,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1314,7 +1393,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1326,7 +1405,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1374,7 +1453,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1400,7 +1478,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1503,6 +1581,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D359-4466-BEB4-527D88A9C251}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1573,6 +1656,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D359-4466-BEB4-527D88A9C251}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1637,6 +1725,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D359-4466-BEB4-527D88A9C251}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1707,6 +1800,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D359-4466-BEB4-527D88A9C251}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1774,6 +1872,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-D359-4466-BEB4-527D88A9C251}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1800,6 +1903,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D359-4466-BEB4-527D88A9C251}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1847,7 +1955,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1873,7 +1980,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1911,7 +2018,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="440410152"/>
@@ -1968,7 +2075,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1994,7 +2100,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2026,7 +2132,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="440407800"/>
@@ -2043,7 +2149,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2069,7 +2174,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2099,7 +2204,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2111,7 +2216,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2159,7 +2264,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2185,7 +2289,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2270,7 +2374,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1774567781834637</c:v>
+                  <c:v>8.8728389091731849E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.58469274396304738</c:v>
@@ -2288,6 +2392,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B8D-421C-AE13-D8D21191AA69}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2358,6 +2467,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B8D-421C-AE13-D8D21191AA69}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2428,6 +2542,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5B8D-421C-AE13-D8D21191AA69}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2492,6 +2611,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5B8D-421C-AE13-D8D21191AA69}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2562,6 +2686,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5B8D-421C-AE13-D8D21191AA69}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2632,6 +2761,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5B8D-421C-AE13-D8D21191AA69}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2702,6 +2836,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5B8D-421C-AE13-D8D21191AA69}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2757,7 +2896,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="441995208"/>
@@ -2816,7 +2955,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="439199920"/>
@@ -2833,7 +2972,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2859,7 +2997,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2889,7 +3027,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2901,7 +3039,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2949,7 +3087,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2975,7 +3112,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3060,7 +3197,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.8728389091731849E-2</c:v>
+                  <c:v>4.4364194545865925E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.14617318599076184</c:v>
@@ -3078,6 +3215,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B596-4A0D-88B3-5DC8DBF7ACA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3148,6 +3290,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B596-4A0D-88B3-5DC8DBF7ACA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3218,6 +3365,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B596-4A0D-88B3-5DC8DBF7ACA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3288,6 +3440,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B596-4A0D-88B3-5DC8DBF7ACA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3358,6 +3515,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B596-4A0D-88B3-5DC8DBF7ACA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3428,6 +3590,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B596-4A0D-88B3-5DC8DBF7ACA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3483,7 +3650,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="441996384"/>
@@ -3542,7 +3709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="441995992"/>
@@ -3559,7 +3726,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3585,7 +3751,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3615,7 +3781,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5679,7 +5845,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5709,7 +5881,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5739,7 +5917,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5769,7 +5953,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6049,11 +6239,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6085,48 +6275,48 @@
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="17"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -6345,48 +6535,48 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
@@ -6641,640 +6831,640 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="P23" s="20" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="P23" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="35"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="21" t="s">
+      <c r="H24" s="24"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="21" t="s">
+      <c r="K24" s="24"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="P24" s="21" t="s">
+      <c r="N24" s="24"/>
+      <c r="P24" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="21" t="s">
+      <c r="Q24" s="24"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="21"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="21" t="s">
+      <c r="T24" s="24"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="W24" s="21"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="21" t="s">
+      <c r="W24" s="24"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="21" t="s">
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AC24" s="21"/>
+      <c r="AC24" s="24"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23" t="s">
+      <c r="I25" s="14"/>
+      <c r="J25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23" t="s">
+      <c r="L25" s="14"/>
+      <c r="M25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="N25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P25" s="27" t="s">
+      <c r="P25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="23" t="s">
+      <c r="Q25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R25" s="22"/>
-      <c r="S25" s="27" t="s">
+      <c r="R25" s="14"/>
+      <c r="S25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="T25" s="23" t="s">
+      <c r="T25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="22"/>
-      <c r="V25" s="27" t="s">
+      <c r="U25" s="14"/>
+      <c r="V25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="W25" s="23" t="s">
+      <c r="W25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="27" t="s">
+      <c r="X25" s="14"/>
+      <c r="Y25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Z25" s="23" t="s">
+      <c r="Z25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="27" t="s">
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AC25" s="23" t="s">
+      <c r="AC25" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="24">
+      <c r="A26" s="16">
         <v>100</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="18">
         <v>0.161663</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="24">
+      <c r="C26" s="14"/>
+      <c r="D26" s="16">
         <v>100</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="18">
         <v>5.326E-3</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="24">
+      <c r="F26" s="14"/>
+      <c r="G26" s="16">
         <v>100</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="18">
         <v>7.9050000000000006E-3</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="24">
+      <c r="I26" s="14"/>
+      <c r="J26" s="16">
         <v>100</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="18">
         <v>1.8336000000000002E-2</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="24">
+      <c r="L26" s="14"/>
+      <c r="M26" s="16">
         <v>100</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="18">
         <v>5.7505000000000001E-2</v>
       </c>
-      <c r="P26" s="24" t="s">
+      <c r="P26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="26">
+      <c r="Q26" s="18">
         <f>B30</f>
         <v>0.94027499999999997</v>
       </c>
-      <c r="R26" s="22"/>
-      <c r="S26" s="24" t="s">
+      <c r="R26" s="14"/>
+      <c r="S26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="T26" s="26">
+      <c r="T26" s="18">
         <f>E30</f>
         <v>0.108976</v>
       </c>
-      <c r="U26" s="22"/>
-      <c r="V26" s="24" t="s">
+      <c r="U26" s="14"/>
+      <c r="V26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="W26" s="26">
+      <c r="W26" s="18">
         <f>H30</f>
         <v>0.115286</v>
       </c>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="24" t="s">
+      <c r="X26" s="14"/>
+      <c r="Y26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Z26" s="26">
+      <c r="Z26" s="18">
         <f>K30</f>
         <v>0.115124</v>
       </c>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="24" t="s">
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AC26" s="26">
+      <c r="AC26" s="18">
         <f>N30</f>
         <v>0.52927999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
+      <c r="A27" s="16">
         <v>500</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="18">
         <v>0.17970900000000001</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="24">
+      <c r="C27" s="14"/>
+      <c r="D27" s="16">
         <v>500</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="18">
         <v>9.5069999999999998E-3</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="24">
+      <c r="F27" s="14"/>
+      <c r="G27" s="16">
         <v>500</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="18">
         <v>1.4309000000000001E-2</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="24">
+      <c r="I27" s="14"/>
+      <c r="J27" s="16">
         <v>500</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="18">
         <v>2.6040000000000001E-2</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="24">
+      <c r="L27" s="14"/>
+      <c r="M27" s="16">
         <v>500</v>
       </c>
-      <c r="N27" s="26">
+      <c r="N27" s="18">
         <v>7.0565000000000003E-2</v>
       </c>
-      <c r="P27" s="24" t="s">
+      <c r="P27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Q27" s="26">
+      <c r="Q27" s="18">
         <f>B10</f>
         <v>426.49712</v>
       </c>
-      <c r="R27" s="22"/>
-      <c r="S27" s="24" t="s">
+      <c r="R27" s="14"/>
+      <c r="S27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="T27" s="26">
+      <c r="T27" s="18">
         <f>E10</f>
         <v>145.47183999999999</v>
       </c>
-      <c r="U27" s="22"/>
-      <c r="V27" s="24" t="s">
+      <c r="U27" s="14"/>
+      <c r="V27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="W27" s="26">
+      <c r="W27" s="18">
         <f>H10</f>
         <v>62.545735000000001</v>
       </c>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="24" t="s">
+      <c r="X27" s="14"/>
+      <c r="Y27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Z27" s="26">
+      <c r="Z27" s="18">
         <f>K10</f>
         <v>31.015882999999999</v>
       </c>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="24" t="s">
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AC27" s="26">
-        <f>N9</f>
-        <v>7.2688410000000001</v>
+      <c r="AC27" s="18">
+        <f>N10</f>
+        <v>28.897604999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
+      <c r="A28" s="16">
         <v>1000</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="18">
         <v>0.212617</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="24">
+      <c r="C28" s="14"/>
+      <c r="D28" s="16">
         <v>1000</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="18">
         <v>1.4585000000000001E-2</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="24">
+      <c r="F28" s="14"/>
+      <c r="G28" s="16">
         <v>1000</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="18">
         <v>1.8377999999999999E-2</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="24">
+      <c r="I28" s="14"/>
+      <c r="J28" s="16">
         <v>1000</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="18">
         <v>0.32634999999999997</v>
       </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="24">
+      <c r="L28" s="14"/>
+      <c r="M28" s="16">
         <v>1000</v>
       </c>
-      <c r="N28" s="26">
+      <c r="N28" s="18">
         <v>5.7133000000000003E-2</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="P28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Q28" s="23" t="s">
+      <c r="Q28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R28" s="22"/>
-      <c r="S28" s="27" t="s">
+      <c r="R28" s="14"/>
+      <c r="S28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="T28" s="23" t="s">
+      <c r="T28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="U28" s="22"/>
-      <c r="V28" s="27" t="s">
+      <c r="U28" s="14"/>
+      <c r="V28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="W28" s="23" t="s">
+      <c r="W28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="27" t="s">
+      <c r="X28" s="14"/>
+      <c r="Y28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Z28" s="23" t="s">
+      <c r="Z28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="27" t="s">
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AC28" s="23" t="s">
+      <c r="AC28" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="24">
+      <c r="A29" s="16">
         <v>5000</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="18">
         <v>0.55155699999999996</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="24">
+      <c r="C29" s="14"/>
+      <c r="D29" s="16">
         <v>5000</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="18">
         <v>5.1018000000000001E-2</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="24">
+      <c r="F29" s="14"/>
+      <c r="G29" s="16">
         <v>5000</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="18">
         <v>5.3169000000000001E-2</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="24">
+      <c r="I29" s="14"/>
+      <c r="J29" s="16">
         <v>5000</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="18">
         <v>7.2958999999999996E-2</v>
       </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="24">
+      <c r="L29" s="14"/>
+      <c r="M29" s="16">
         <v>5000</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="18">
         <v>8.2471000000000003E-2</v>
       </c>
-      <c r="P29" s="24" t="s">
+      <c r="P29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q29" s="26">
+      <c r="Q29" s="18">
         <f>B30</f>
         <v>0.94027499999999997</v>
       </c>
-      <c r="R29" s="22"/>
-      <c r="S29" s="24" t="s">
+      <c r="R29" s="14"/>
+      <c r="S29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="T29" s="26">
+      <c r="T29" s="18">
         <f>E30</f>
         <v>0.108976</v>
       </c>
-      <c r="U29" s="22"/>
-      <c r="V29" s="24" t="s">
+      <c r="U29" s="14"/>
+      <c r="V29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="W29" s="26">
+      <c r="W29" s="18">
         <f>H30</f>
         <v>0.115286</v>
       </c>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="24" t="s">
+      <c r="X29" s="14"/>
+      <c r="Y29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Z29" s="26">
+      <c r="Z29" s="18">
         <f>K30</f>
         <v>0.115124</v>
       </c>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="24" t="s">
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AC29" s="26">
+      <c r="AC29" s="18">
         <f>N30</f>
         <v>0.52927999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
+      <c r="A30" s="16">
         <v>10000</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="18">
         <v>0.94027499999999997</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="24">
+      <c r="C30" s="17"/>
+      <c r="D30" s="16">
         <v>10000</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="18">
         <v>0.108976</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="24">
+      <c r="F30" s="17"/>
+      <c r="G30" s="16">
         <v>10000</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="18">
         <v>0.115286</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="24">
+      <c r="I30" s="17"/>
+      <c r="J30" s="16">
         <v>10000</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="18">
         <v>0.115124</v>
       </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="24">
+      <c r="L30" s="17"/>
+      <c r="M30" s="16">
         <v>10000</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="18">
         <v>0.52927999999999997</v>
       </c>
-      <c r="P30" s="24" t="s">
+      <c r="P30" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="18">
         <f>B20</f>
         <v>1.4698199999999999</v>
       </c>
-      <c r="R30" s="22"/>
-      <c r="S30" s="24" t="s">
+      <c r="R30" s="14"/>
+      <c r="S30" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="T30" s="26">
+      <c r="T30" s="18">
         <f>E20</f>
         <v>0.38750800000000002</v>
       </c>
-      <c r="U30" s="22"/>
-      <c r="V30" s="24" t="s">
+      <c r="U30" s="14"/>
+      <c r="V30" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="W30" s="26">
+      <c r="W30" s="18">
         <f>H20</f>
         <v>0.21168000000000001</v>
       </c>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="24" t="s">
+      <c r="X30" s="14"/>
+      <c r="Y30" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Z30" s="26">
+      <c r="Z30" s="18">
         <f>K20</f>
         <v>0.17644299999999999</v>
       </c>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="24" t="s">
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AC30" s="26">
+      <c r="AC30" s="18">
         <f>N20</f>
         <v>0.182282</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="24">
+      <c r="A31" s="16">
         <v>100000</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="18">
         <v>2.9817179999999999</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="24">
+      <c r="C31" s="17"/>
+      <c r="D31" s="16">
         <v>100000</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="18">
         <v>1.989168</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="24">
+      <c r="F31" s="17"/>
+      <c r="G31" s="16">
         <v>100000</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="18">
         <v>1.98865</v>
       </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="24">
+      <c r="I31" s="17"/>
+      <c r="J31" s="16">
         <v>100000</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="18">
         <v>0.97000699999999995</v>
       </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="24">
+      <c r="L31" s="17"/>
+      <c r="M31" s="16">
         <v>100000</v>
       </c>
-      <c r="N31" s="26">
+      <c r="N31" s="18">
         <v>2.3006859999999998</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="S32" s="30" t="s">
+      <c r="S32" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="D33" s="18" t="s">
+      <c r="B33" s="27"/>
+      <c r="D33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="G33" s="15" t="s">
+      <c r="E33" s="27"/>
+      <c r="G33" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="J33" s="15" t="s">
+      <c r="H33" s="26"/>
+      <c r="J33" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="15"/>
-      <c r="M33" s="15" t="s">
+      <c r="K33" s="26"/>
+      <c r="M33" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="15"/>
-      <c r="P33" s="15" t="s">
+      <c r="N33" s="26"/>
+      <c r="P33" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q33" s="15"/>
-      <c r="S33" s="28" t="s">
+      <c r="Q33" s="26"/>
+      <c r="S33" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="T33" s="28" t="s">
+      <c r="T33" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="U33" s="28" t="s">
+      <c r="U33" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="D34" s="18" t="s">
+      <c r="B34" s="27"/>
+      <c r="D34" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="G34" s="15" t="s">
+      <c r="E34" s="27"/>
+      <c r="G34" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="J34" s="15" t="s">
+      <c r="H34" s="26"/>
+      <c r="J34" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="M34" s="15" t="s">
+      <c r="K34" s="26"/>
+      <c r="M34" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="N34" s="15"/>
-      <c r="P34" s="15" t="s">
+      <c r="N34" s="26"/>
+      <c r="P34" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Q34" s="15"/>
-      <c r="S34" s="28">
+      <c r="Q34" s="26"/>
+      <c r="S34" s="20">
         <v>2</v>
       </c>
-      <c r="T34" s="29">
+      <c r="T34" s="21">
         <f>Q26/Q27</f>
         <v>2.2046456022962123E-3</v>
       </c>
-      <c r="U34" s="29">
+      <c r="U34" s="21">
         <f>Q29/Q30</f>
         <v>0.63972119034983876</v>
       </c>
@@ -7292,30 +7482,30 @@
       <c r="E35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="J35" s="19" t="s">
+      <c r="H35" s="25"/>
+      <c r="J35" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="19"/>
-      <c r="M35" s="19" t="s">
+      <c r="K35" s="25"/>
+      <c r="M35" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N35" s="19"/>
-      <c r="P35" s="19" t="s">
+      <c r="N35" s="25"/>
+      <c r="P35" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="Q35" s="19"/>
-      <c r="S35" s="28">
+      <c r="Q35" s="25"/>
+      <c r="S35" s="20">
         <v>4</v>
       </c>
-      <c r="T35" s="29">
+      <c r="T35" s="21">
         <f>T26/T27</f>
         <v>7.4912092952148001E-4</v>
       </c>
-      <c r="U35" s="29">
+      <c r="U35" s="21">
         <f>T29/T30</f>
         <v>0.28122258121122662</v>
       </c>
@@ -7357,14 +7547,14 @@
       <c r="Q36" s="11">
         <v>1</v>
       </c>
-      <c r="S36" s="28">
+      <c r="S36" s="20">
         <v>8</v>
       </c>
-      <c r="T36" s="29">
+      <c r="T36" s="21">
         <f>W26/W27</f>
         <v>1.843227200064081E-3</v>
       </c>
-      <c r="U36" s="29">
+      <c r="U36" s="21">
         <f>W29/W30</f>
         <v>0.54462396069538921</v>
       </c>
@@ -7410,14 +7600,14 @@
         <f>K37/J37</f>
         <v>0</v>
       </c>
-      <c r="S37" s="28">
+      <c r="S37" s="20">
         <v>16</v>
       </c>
-      <c r="T37" s="29">
+      <c r="T37" s="21">
         <f>Z26/Z27</f>
         <v>3.7117756731285066E-3</v>
       </c>
-      <c r="U37" s="29">
+      <c r="U37" s="21">
         <f>Z29/Z30</f>
         <v>0.65247133635224985</v>
       </c>
@@ -7463,14 +7653,14 @@
         <f t="shared" ref="Q38:Q41" si="1">K38/J38</f>
         <v>0</v>
       </c>
-      <c r="S38" s="28">
+      <c r="S38" s="20">
         <v>32</v>
       </c>
-      <c r="T38" s="29">
+      <c r="T38" s="21">
         <f>AC26/AC27</f>
-        <v>7.2814909557108204E-2</v>
-      </c>
-      <c r="U38" s="29">
+        <v>1.8315704709784771E-2</v>
+      </c>
+      <c r="U38" s="21">
         <f>AC29/AC30</f>
         <v>2.9036328326439254</v>
       </c>
@@ -7596,40 +7786,40 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="B43" s="26"/>
+      <c r="D43" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="G43" s="19" t="s">
+      <c r="E43" s="26"/>
+      <c r="G43" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="J43" s="19" t="s">
+      <c r="H43" s="25"/>
+      <c r="J43" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="19"/>
-      <c r="M43" s="19" t="s">
+      <c r="K43" s="25"/>
+      <c r="M43" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N43" s="19"/>
-      <c r="P43" s="19" t="s">
+      <c r="N43" s="25"/>
+      <c r="P43" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="Q43" s="19"/>
+      <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="D44" s="14" t="s">
+      <c r="B44" s="28"/>
+      <c r="D44" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="14"/>
+      <c r="E44" s="28"/>
       <c r="G44" s="11">
         <v>1</v>
       </c>
@@ -7679,8 +7869,8 @@
         <v>2</v>
       </c>
       <c r="K45" s="12">
-        <f>$E$38/B$17</f>
-        <v>0.1774567781834637</v>
+        <f>$E$37/B$17</f>
+        <v>8.8728389091731849E-2</v>
       </c>
       <c r="M45" s="11">
         <v>2</v>
@@ -7694,7 +7884,7 @@
       </c>
       <c r="Q45" s="12">
         <f>K45/J45</f>
-        <v>8.8728389091731849E-2</v>
+        <v>4.4364194545865925E-2</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -7880,22 +8070,22 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="J51" s="19" t="s">
+      <c r="H51" s="25"/>
+      <c r="J51" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K51" s="19"/>
-      <c r="M51" s="19" t="s">
+      <c r="K51" s="25"/>
+      <c r="M51" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N51" s="19"/>
-      <c r="P51" s="19" t="s">
+      <c r="N51" s="25"/>
+      <c r="P51" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Q51" s="19"/>
+      <c r="Q51" s="25"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G52" s="11">
@@ -8074,22 +8264,22 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="J59" s="19" t="s">
+      <c r="H59" s="25"/>
+      <c r="J59" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="19"/>
-      <c r="M59" s="19" t="s">
+      <c r="K59" s="25"/>
+      <c r="M59" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N59" s="19"/>
-      <c r="P59" s="19" t="s">
+      <c r="N59" s="25"/>
+      <c r="P59" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q59" s="19"/>
+      <c r="Q59" s="25"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G60" s="11">
@@ -8268,22 +8458,22 @@
       </c>
     </row>
     <row r="67" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="J67" s="19" t="s">
+      <c r="H67" s="25"/>
+      <c r="J67" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K67" s="19"/>
-      <c r="M67" s="19" t="s">
+      <c r="K67" s="25"/>
+      <c r="M67" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N67" s="19"/>
-      <c r="P67" s="19" t="s">
+      <c r="N67" s="25"/>
+      <c r="P67" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q67" s="19"/>
+      <c r="Q67" s="25"/>
     </row>
     <row r="68" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G68" s="11">
@@ -8462,14 +8652,14 @@
       </c>
     </row>
     <row r="75" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="J75" s="19" t="s">
+      <c r="J75" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="K75" s="19"/>
-      <c r="P75" s="19" t="s">
+      <c r="K75" s="25"/>
+      <c r="P75" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q75" s="19"/>
+      <c r="Q75" s="25"/>
     </row>
     <row r="76" spans="7:17" x14ac:dyDescent="0.2">
       <c r="J76" s="11">
@@ -8567,53 +8757,7 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="S32:U32"/>
     <mergeCell ref="P23:AC23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="A23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="D43:E43"/>
@@ -8630,6 +8774,52 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AB24:AC24"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
